--- a/testDataFile/Orchestrator API_TestCase.xlsx
+++ b/testDataFile/Orchestrator API_TestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onwardsmediagroup.sharepoint.com/sites/QA/Shared Documents/Product_Module_Testing/Orchestrator/TestReports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\poppy\testDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9184" documentId="8_{11BDAB6F-7B7E-42BC-80C9-F7C9E79ACE92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9F4FBC78-E0AE-490E-9C7E-21A2382C568C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A477498-F698-4543-95BB-0664B4A00145}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
@@ -14832,7 +14832,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -15492,7 +15492,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15904,6 +15904,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -15911,9 +15917,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15935,9 +15938,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15976,10 +15976,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15990,9 +15990,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="190">
     <dxf>
@@ -18403,7 +18403,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -18701,7 +18701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -19218,10 +19218,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8325489-131B-4C8A-A4B4-AC8E6BBC3B14}">
   <dimension ref="A1:N395"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{5D273C1B-AD7B-5315-95A2-51BC5FDD5068}">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
       <selection activeCell="C160" sqref="C160"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19284,7 +19284,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="150" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="43">
@@ -19317,7 +19317,7 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="152"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="43">
         <v>2</v>
       </c>
@@ -19348,7 +19348,7 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="152"/>
+      <c r="A4" s="150"/>
       <c r="B4" s="43">
         <v>3</v>
       </c>
@@ -19379,7 +19379,7 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
-      <c r="A5" s="152"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="43">
         <v>4</v>
       </c>
@@ -19410,7 +19410,7 @@
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" ht="60" customHeight="1">
-      <c r="A6" s="152"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="43">
         <v>5</v>
       </c>
@@ -19441,7 +19441,7 @@
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:13" ht="60" customHeight="1">
-      <c r="A7" s="152"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="43">
         <v>6</v>
       </c>
@@ -19472,7 +19472,7 @@
       <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="60" customHeight="1">
-      <c r="A8" s="152"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="43">
         <v>7</v>
       </c>
@@ -19503,7 +19503,7 @@
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="60" customHeight="1">
-      <c r="A9" s="152"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="43">
         <v>8</v>
       </c>
@@ -19534,7 +19534,7 @@
       <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="60" customHeight="1">
-      <c r="A10" s="152"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="43">
         <v>9</v>
       </c>
@@ -19565,7 +19565,7 @@
       <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1">
-      <c r="A11" s="152"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="43">
         <v>10</v>
       </c>
@@ -19596,7 +19596,7 @@
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1">
-      <c r="A12" s="152"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="43">
         <v>11</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="M12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="150" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="43">
@@ -19660,7 +19660,7 @@
       <c r="M13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="43">
         <v>13</v>
       </c>
@@ -19691,7 +19691,7 @@
       <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1">
-      <c r="A15" s="152"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="43">
         <v>14</v>
       </c>
@@ -19722,7 +19722,7 @@
       <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="60" customHeight="1">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="151" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="43">
@@ -19755,7 +19755,7 @@
       <c r="M16" s="46"/>
     </row>
     <row r="17" spans="1:13" ht="60" customHeight="1">
-      <c r="A17" s="150"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="78" t="s">
         <v>84</v>
       </c>
@@ -19786,7 +19786,7 @@
       <c r="M17" s="46"/>
     </row>
     <row r="18" spans="1:13" ht="60" customHeight="1">
-      <c r="A18" s="150"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="78" t="s">
         <v>87</v>
       </c>
@@ -19817,7 +19817,7 @@
       <c r="M18" s="46"/>
     </row>
     <row r="19" spans="1:13" ht="60" customHeight="1">
-      <c r="A19" s="150"/>
+      <c r="A19" s="152"/>
       <c r="B19" s="43">
         <v>16</v>
       </c>
@@ -19848,7 +19848,7 @@
       <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:13" ht="60" customHeight="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="43">
         <v>17</v>
       </c>
@@ -19879,7 +19879,7 @@
       <c r="M20" s="46"/>
     </row>
     <row r="21" spans="1:13" ht="60" customHeight="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="43">
         <v>18</v>
       </c>
@@ -19910,7 +19910,7 @@
       <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:13" ht="60" customHeight="1">
-      <c r="A22" s="150"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="43">
         <v>19</v>
       </c>
@@ -19941,7 +19941,7 @@
       <c r="M22" s="46"/>
     </row>
     <row r="23" spans="1:13" ht="60" customHeight="1">
-      <c r="A23" s="150"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="43">
         <v>20</v>
       </c>
@@ -19972,7 +19972,7 @@
       <c r="M23" s="46"/>
     </row>
     <row r="24" spans="1:13" ht="60" customHeight="1">
-      <c r="A24" s="150"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="43">
         <v>21</v>
       </c>
@@ -20003,7 +20003,7 @@
       <c r="M24" s="46"/>
     </row>
     <row r="25" spans="1:13" ht="60" customHeight="1">
-      <c r="A25" s="150"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="43">
         <v>22</v>
       </c>
@@ -20034,7 +20034,7 @@
       <c r="M25" s="46"/>
     </row>
     <row r="26" spans="1:13" ht="48" customHeight="1">
-      <c r="A26" s="150"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="43">
         <v>23</v>
       </c>
@@ -20065,7 +20065,7 @@
       <c r="M26" s="46"/>
     </row>
     <row r="27" spans="1:13" ht="60" customHeight="1">
-      <c r="A27" s="150"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="43">
         <v>24</v>
       </c>
@@ -20096,7 +20096,7 @@
       <c r="M27" s="46"/>
     </row>
     <row r="28" spans="1:13" ht="60" customHeight="1">
-      <c r="A28" s="150"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="43">
         <v>25</v>
       </c>
@@ -20127,7 +20127,7 @@
       <c r="M28" s="46"/>
     </row>
     <row r="29" spans="1:13" ht="60" customHeight="1">
-      <c r="A29" s="150"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="43">
         <v>26</v>
       </c>
@@ -20158,7 +20158,7 @@
       <c r="M29" s="46"/>
     </row>
     <row r="30" spans="1:13" ht="60" customHeight="1">
-      <c r="A30" s="150"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="43">
         <v>27</v>
       </c>
@@ -20189,7 +20189,7 @@
       <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" ht="60" customHeight="1">
-      <c r="A31" s="150"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="43">
         <v>28</v>
       </c>
@@ -20220,7 +20220,7 @@
       <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:13" ht="60" customHeight="1">
-      <c r="A32" s="151"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="43">
         <v>29</v>
       </c>
@@ -20251,7 +20251,7 @@
       <c r="M32" s="46"/>
     </row>
     <row r="33" spans="1:14" ht="60" customHeight="1">
-      <c r="A33" s="152" t="s">
+      <c r="A33" s="150" t="s">
         <v>122</v>
       </c>
       <c r="B33" s="43">
@@ -20289,7 +20289,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="66" customHeight="1">
-      <c r="A34" s="152"/>
+      <c r="A34" s="150"/>
       <c r="B34" s="43">
         <v>31</v>
       </c>
@@ -20320,7 +20320,7 @@
       <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:14" ht="66" customHeight="1">
-      <c r="A35" s="152"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="43">
         <v>32</v>
       </c>
@@ -20351,7 +20351,7 @@
       <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:14" ht="66" customHeight="1">
-      <c r="A36" s="152"/>
+      <c r="A36" s="150"/>
       <c r="B36" s="43">
         <v>33</v>
       </c>
@@ -20382,7 +20382,7 @@
       <c r="M36" s="46"/>
     </row>
     <row r="37" spans="1:14" ht="66" customHeight="1">
-      <c r="A37" s="152"/>
+      <c r="A37" s="150"/>
       <c r="B37" s="43">
         <v>34</v>
       </c>
@@ -20413,7 +20413,7 @@
       <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:14" ht="66" customHeight="1">
-      <c r="A38" s="152"/>
+      <c r="A38" s="150"/>
       <c r="B38" s="43">
         <v>35</v>
       </c>
@@ -20444,7 +20444,7 @@
       <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:14" ht="66" customHeight="1">
-      <c r="A39" s="152"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="43">
         <v>36</v>
       </c>
@@ -20475,7 +20475,7 @@
       <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:14" ht="66" customHeight="1">
-      <c r="A40" s="152" t="s">
+      <c r="A40" s="150" t="s">
         <v>147</v>
       </c>
       <c r="B40" s="43">
@@ -20510,7 +20510,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="66" customHeight="1">
-      <c r="A41" s="152"/>
+      <c r="A41" s="150"/>
       <c r="B41" s="43">
         <v>38</v>
       </c>
@@ -20541,7 +20541,7 @@
       <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:14" ht="66" customHeight="1">
-      <c r="A42" s="152" t="s">
+      <c r="A42" s="150" t="s">
         <v>156</v>
       </c>
       <c r="B42" s="43">
@@ -20574,7 +20574,7 @@
       <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:14" ht="66" customHeight="1">
-      <c r="A43" s="152"/>
+      <c r="A43" s="150"/>
       <c r="B43" s="43">
         <v>40</v>
       </c>
@@ -20605,7 +20605,7 @@
       <c r="M43" s="46"/>
     </row>
     <row r="44" spans="1:14" ht="93.75" customHeight="1">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="150" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="43">
@@ -20638,7 +20638,7 @@
       <c r="M44" s="46"/>
     </row>
     <row r="45" spans="1:14" ht="93.75" customHeight="1">
-      <c r="A45" s="152"/>
+      <c r="A45" s="150"/>
       <c r="B45" s="43">
         <v>42</v>
       </c>
@@ -20669,7 +20669,7 @@
       <c r="M45" s="46"/>
     </row>
     <row r="46" spans="1:14" ht="93.75" customHeight="1">
-      <c r="A46" s="152"/>
+      <c r="A46" s="150"/>
       <c r="B46" s="43">
         <v>43</v>
       </c>
@@ -20700,7 +20700,7 @@
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="1:14" ht="66" customHeight="1">
-      <c r="A47" s="152"/>
+      <c r="A47" s="150"/>
       <c r="B47" s="43">
         <v>44</v>
       </c>
@@ -20731,7 +20731,7 @@
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="1:14" ht="66" customHeight="1">
-      <c r="A48" s="152"/>
+      <c r="A48" s="150"/>
       <c r="B48" s="43">
         <v>45</v>
       </c>
@@ -20762,7 +20762,7 @@
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="1:14" ht="66" customHeight="1">
-      <c r="A49" s="152"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="43">
         <v>46</v>
       </c>
@@ -20793,7 +20793,7 @@
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="1:14" ht="66" customHeight="1">
-      <c r="A50" s="152"/>
+      <c r="A50" s="150"/>
       <c r="B50" s="43">
         <v>47</v>
       </c>
@@ -20827,7 +20827,7 @@
       <c r="N50" s="59"/>
     </row>
     <row r="51" spans="1:14" ht="66" customHeight="1">
-      <c r="A51" s="152"/>
+      <c r="A51" s="150"/>
       <c r="B51" s="43">
         <v>48</v>
       </c>
@@ -20858,7 +20858,7 @@
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="1:14" ht="74.25" customHeight="1">
-      <c r="A52" s="152"/>
+      <c r="A52" s="150"/>
       <c r="B52" s="43">
         <v>49</v>
       </c>
@@ -20889,7 +20889,7 @@
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="1:14" ht="74.25" customHeight="1">
-      <c r="A53" s="152"/>
+      <c r="A53" s="150"/>
       <c r="B53" s="43">
         <v>50</v>
       </c>
@@ -20920,7 +20920,7 @@
       <c r="M53" s="46"/>
     </row>
     <row r="54" spans="1:14" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A54" s="152"/>
+      <c r="A54" s="150"/>
       <c r="B54" s="43">
         <v>51</v>
       </c>
@@ -20951,7 +20951,7 @@
       <c r="M54" s="48"/>
     </row>
     <row r="55" spans="1:14" ht="66" customHeight="1">
-      <c r="A55" s="152"/>
+      <c r="A55" s="150"/>
       <c r="B55" s="43">
         <v>52</v>
       </c>
@@ -20984,7 +20984,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="66" customHeight="1">
-      <c r="A56" s="152"/>
+      <c r="A56" s="150"/>
       <c r="B56" s="43">
         <v>53</v>
       </c>
@@ -21015,7 +21015,7 @@
       <c r="M56" s="46"/>
     </row>
     <row r="57" spans="1:14" ht="66" customHeight="1">
-      <c r="A57" s="152"/>
+      <c r="A57" s="150"/>
       <c r="B57" s="43">
         <v>54</v>
       </c>
@@ -21046,7 +21046,7 @@
       <c r="M57" s="46"/>
     </row>
     <row r="58" spans="1:14" ht="66" customHeight="1">
-      <c r="A58" s="152"/>
+      <c r="A58" s="150"/>
       <c r="B58" s="43">
         <v>55</v>
       </c>
@@ -21077,7 +21077,7 @@
       <c r="M58" s="46"/>
     </row>
     <row r="59" spans="1:14" ht="66" customHeight="1">
-      <c r="A59" s="152"/>
+      <c r="A59" s="150"/>
       <c r="B59" s="97" t="s">
         <v>212</v>
       </c>
@@ -21106,7 +21106,7 @@
       <c r="M59" s="46"/>
     </row>
     <row r="60" spans="1:14" ht="66" customHeight="1">
-      <c r="A60" s="152"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="43">
         <v>56</v>
       </c>
@@ -21137,7 +21137,7 @@
       <c r="M60" s="46"/>
     </row>
     <row r="61" spans="1:14" ht="66" customHeight="1">
-      <c r="A61" s="152"/>
+      <c r="A61" s="150"/>
       <c r="B61" s="97" t="s">
         <v>219</v>
       </c>
@@ -21166,7 +21166,7 @@
       <c r="M61" s="46"/>
     </row>
     <row r="62" spans="1:14" ht="66" customHeight="1">
-      <c r="A62" s="152"/>
+      <c r="A62" s="150"/>
       <c r="B62" s="43">
         <v>57</v>
       </c>
@@ -21197,7 +21197,7 @@
       <c r="M62" s="46"/>
     </row>
     <row r="63" spans="1:14" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A63" s="152"/>
+      <c r="A63" s="150"/>
       <c r="B63" s="101" t="s">
         <v>226</v>
       </c>
@@ -21228,7 +21228,7 @@
       <c r="M63" s="86"/>
     </row>
     <row r="64" spans="1:14" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A64" s="152"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="101" t="s">
         <v>231</v>
       </c>
@@ -21259,7 +21259,7 @@
       <c r="M64" s="86"/>
     </row>
     <row r="65" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A65" s="152"/>
+      <c r="A65" s="150"/>
       <c r="B65" s="101" t="s">
         <v>235</v>
       </c>
@@ -21290,7 +21290,7 @@
       <c r="M65" s="86"/>
     </row>
     <row r="66" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A66" s="152"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="101" t="s">
         <v>239</v>
       </c>
@@ -21321,7 +21321,7 @@
       <c r="M66" s="86"/>
     </row>
     <row r="67" spans="1:13" ht="66" customHeight="1">
-      <c r="A67" s="152"/>
+      <c r="A67" s="150"/>
       <c r="B67" s="43">
         <v>58</v>
       </c>
@@ -21344,7 +21344,7 @@
       <c r="M67" s="46"/>
     </row>
     <row r="68" spans="1:13" ht="66" customHeight="1">
-      <c r="A68" s="152"/>
+      <c r="A68" s="150"/>
       <c r="B68" s="43">
         <v>59</v>
       </c>
@@ -21367,7 +21367,7 @@
       <c r="M68" s="46"/>
     </row>
     <row r="69" spans="1:13" ht="66" customHeight="1">
-      <c r="A69" s="152" t="s">
+      <c r="A69" s="150" t="s">
         <v>244</v>
       </c>
       <c r="B69" s="43">
@@ -21400,7 +21400,7 @@
       <c r="M69" s="46"/>
     </row>
     <row r="70" spans="1:13" ht="66" customHeight="1">
-      <c r="A70" s="152"/>
+      <c r="A70" s="150"/>
       <c r="B70" s="43">
         <v>61</v>
       </c>
@@ -21431,7 +21431,7 @@
       <c r="M70" s="46"/>
     </row>
     <row r="71" spans="1:13" ht="66" customHeight="1">
-      <c r="A71" s="152"/>
+      <c r="A71" s="150"/>
       <c r="B71" s="43">
         <v>62</v>
       </c>
@@ -21464,7 +21464,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="66" customHeight="1">
-      <c r="A72" s="152" t="s">
+      <c r="A72" s="150" t="s">
         <v>256</v>
       </c>
       <c r="B72" s="43">
@@ -21497,7 +21497,7 @@
       <c r="M72" s="46"/>
     </row>
     <row r="73" spans="1:13" ht="66" customHeight="1">
-      <c r="A73" s="152"/>
+      <c r="A73" s="150"/>
       <c r="B73" s="43">
         <v>64</v>
       </c>
@@ -21528,7 +21528,7 @@
       <c r="M73" s="46"/>
     </row>
     <row r="74" spans="1:13" ht="66" customHeight="1">
-      <c r="A74" s="152"/>
+      <c r="A74" s="150"/>
       <c r="B74" s="43">
         <v>65</v>
       </c>
@@ -21561,7 +21561,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="66" customHeight="1">
-      <c r="A75" s="152"/>
+      <c r="A75" s="150"/>
       <c r="B75" s="43">
         <v>66</v>
       </c>
@@ -21592,7 +21592,7 @@
       <c r="M75" s="46"/>
     </row>
     <row r="76" spans="1:13" ht="66" customHeight="1">
-      <c r="A76" s="152"/>
+      <c r="A76" s="150"/>
       <c r="B76" s="43">
         <v>67</v>
       </c>
@@ -21623,7 +21623,7 @@
       <c r="M76" s="46"/>
     </row>
     <row r="77" spans="1:13" ht="66" customHeight="1">
-      <c r="A77" s="152"/>
+      <c r="A77" s="150"/>
       <c r="B77" s="43">
         <v>68</v>
       </c>
@@ -21654,7 +21654,7 @@
       <c r="M77" s="46"/>
     </row>
     <row r="78" spans="1:13" ht="66" customHeight="1">
-      <c r="A78" s="152"/>
+      <c r="A78" s="150"/>
       <c r="B78" s="43">
         <v>69</v>
       </c>
@@ -21685,7 +21685,7 @@
       <c r="M78" s="46"/>
     </row>
     <row r="79" spans="1:13" ht="66" customHeight="1">
-      <c r="A79" s="152"/>
+      <c r="A79" s="150"/>
       <c r="B79" s="43">
         <v>70</v>
       </c>
@@ -21716,7 +21716,7 @@
       <c r="M79" s="46"/>
     </row>
     <row r="80" spans="1:13" ht="66" customHeight="1">
-      <c r="A80" s="152"/>
+      <c r="A80" s="150"/>
       <c r="B80" s="43">
         <v>71</v>
       </c>
@@ -21747,7 +21747,7 @@
       <c r="M80" s="46"/>
     </row>
     <row r="81" spans="1:13" ht="66" customHeight="1">
-      <c r="A81" s="152"/>
+      <c r="A81" s="150"/>
       <c r="B81" s="43">
         <v>72</v>
       </c>
@@ -21780,7 +21780,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="66" customHeight="1">
-      <c r="A82" s="152"/>
+      <c r="A82" s="150"/>
       <c r="B82" s="43">
         <v>73</v>
       </c>
@@ -21811,7 +21811,7 @@
       <c r="M82" s="46"/>
     </row>
     <row r="83" spans="1:13" ht="66" customHeight="1">
-      <c r="A83" s="152"/>
+      <c r="A83" s="150"/>
       <c r="B83" s="43">
         <v>74</v>
       </c>
@@ -21842,7 +21842,7 @@
       <c r="M83" s="46"/>
     </row>
     <row r="84" spans="1:13" ht="66" customHeight="1">
-      <c r="A84" s="152"/>
+      <c r="A84" s="150"/>
       <c r="B84" s="43">
         <v>75</v>
       </c>
@@ -21873,7 +21873,7 @@
       <c r="M84" s="46"/>
     </row>
     <row r="85" spans="1:13" ht="66" customHeight="1">
-      <c r="A85" s="152"/>
+      <c r="A85" s="150"/>
       <c r="B85" s="43">
         <v>76</v>
       </c>
@@ -21904,7 +21904,7 @@
       <c r="M85" s="46"/>
     </row>
     <row r="86" spans="1:13" ht="66" customHeight="1">
-      <c r="A86" s="152"/>
+      <c r="A86" s="150"/>
       <c r="B86" s="43">
         <v>77</v>
       </c>
@@ -21935,7 +21935,7 @@
       <c r="M86" s="46"/>
     </row>
     <row r="87" spans="1:13" ht="66" customHeight="1">
-      <c r="A87" s="152"/>
+      <c r="A87" s="150"/>
       <c r="B87" s="43">
         <v>78</v>
       </c>
@@ -21966,7 +21966,7 @@
       <c r="M87" s="46"/>
     </row>
     <row r="88" spans="1:13" ht="66" customHeight="1">
-      <c r="A88" s="152"/>
+      <c r="A88" s="150"/>
       <c r="B88" s="43">
         <v>79</v>
       </c>
@@ -21997,7 +21997,7 @@
       <c r="M88" s="46"/>
     </row>
     <row r="89" spans="1:13" ht="66" customHeight="1">
-      <c r="A89" s="152"/>
+      <c r="A89" s="150"/>
       <c r="B89" s="43">
         <v>80</v>
       </c>
@@ -22028,7 +22028,7 @@
       <c r="M89" s="46"/>
     </row>
     <row r="90" spans="1:13" ht="66" customHeight="1">
-      <c r="A90" s="152"/>
+      <c r="A90" s="150"/>
       <c r="B90" s="43">
         <v>81</v>
       </c>
@@ -22059,7 +22059,7 @@
       <c r="M90" s="46"/>
     </row>
     <row r="91" spans="1:13" ht="66" customHeight="1">
-      <c r="A91" s="152"/>
+      <c r="A91" s="150"/>
       <c r="B91" s="43">
         <v>82</v>
       </c>
@@ -22090,7 +22090,7 @@
       <c r="M91" s="46"/>
     </row>
     <row r="92" spans="1:13" ht="66" customHeight="1">
-      <c r="A92" s="152" t="s">
+      <c r="A92" s="150" t="s">
         <v>317</v>
       </c>
       <c r="B92" s="43">
@@ -22123,7 +22123,7 @@
       <c r="M92" s="46"/>
     </row>
     <row r="93" spans="1:13" ht="66" customHeight="1">
-      <c r="A93" s="152"/>
+      <c r="A93" s="150"/>
       <c r="B93" s="43">
         <v>84</v>
       </c>
@@ -22154,7 +22154,7 @@
       <c r="M93" s="46"/>
     </row>
     <row r="94" spans="1:13" ht="66" customHeight="1">
-      <c r="A94" s="152"/>
+      <c r="A94" s="150"/>
       <c r="B94" s="43">
         <v>85</v>
       </c>
@@ -22187,7 +22187,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="66" customHeight="1">
-      <c r="A95" s="152"/>
+      <c r="A95" s="150"/>
       <c r="B95" s="43">
         <v>86</v>
       </c>
@@ -22218,7 +22218,7 @@
       <c r="M95" s="46"/>
     </row>
     <row r="96" spans="1:13" ht="66" customHeight="1">
-      <c r="A96" s="152"/>
+      <c r="A96" s="150"/>
       <c r="B96" s="43">
         <v>87</v>
       </c>
@@ -22249,7 +22249,7 @@
       <c r="M96" s="46"/>
     </row>
     <row r="97" spans="1:14" ht="66" customHeight="1">
-      <c r="A97" s="152" t="s">
+      <c r="A97" s="150" t="s">
         <v>334</v>
       </c>
       <c r="B97" s="43">
@@ -22282,7 +22282,7 @@
       <c r="M97" s="46"/>
     </row>
     <row r="98" spans="1:14" ht="66" customHeight="1">
-      <c r="A98" s="152"/>
+      <c r="A98" s="150"/>
       <c r="B98" s="43">
         <v>89</v>
       </c>
@@ -22313,7 +22313,7 @@
       <c r="M98" s="46"/>
     </row>
     <row r="99" spans="1:14" ht="66" customHeight="1">
-      <c r="A99" s="152"/>
+      <c r="A99" s="150"/>
       <c r="B99" s="43">
         <v>90</v>
       </c>
@@ -22346,7 +22346,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="66" customHeight="1">
-      <c r="A100" s="152"/>
+      <c r="A100" s="150"/>
       <c r="B100" s="43">
         <v>91</v>
       </c>
@@ -22377,7 +22377,7 @@
       <c r="M100" s="46"/>
     </row>
     <row r="101" spans="1:14" ht="66" customHeight="1">
-      <c r="A101" s="152"/>
+      <c r="A101" s="150"/>
       <c r="B101" s="75" t="s">
         <v>346</v>
       </c>
@@ -22408,7 +22408,7 @@
       <c r="M101" s="46"/>
     </row>
     <row r="102" spans="1:14" ht="66" customHeight="1">
-      <c r="A102" s="152"/>
+      <c r="A102" s="150"/>
       <c r="B102" s="43">
         <v>92</v>
       </c>
@@ -22442,7 +22442,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="66" customHeight="1">
-      <c r="A103" s="152"/>
+      <c r="A103" s="150"/>
       <c r="B103" s="43">
         <v>93</v>
       </c>
@@ -22473,7 +22473,7 @@
       <c r="M103" s="46"/>
     </row>
     <row r="104" spans="1:14" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A104" s="152" t="s">
+      <c r="A104" s="150" t="s">
         <v>358</v>
       </c>
       <c r="B104" s="43">
@@ -22506,7 +22506,7 @@
       <c r="M104" s="48"/>
     </row>
     <row r="105" spans="1:14" ht="66" customHeight="1">
-      <c r="A105" s="152"/>
+      <c r="A105" s="150"/>
       <c r="B105" s="43">
         <v>95</v>
       </c>
@@ -22537,7 +22537,7 @@
       <c r="M105" s="46"/>
     </row>
     <row r="106" spans="1:14" ht="66" customHeight="1">
-      <c r="A106" s="152"/>
+      <c r="A106" s="150"/>
       <c r="B106" s="43">
         <v>96</v>
       </c>
@@ -22568,7 +22568,7 @@
       <c r="M106" s="46"/>
     </row>
     <row r="107" spans="1:14" ht="66" customHeight="1">
-      <c r="A107" s="152"/>
+      <c r="A107" s="150"/>
       <c r="B107" s="43">
         <v>97</v>
       </c>
@@ -22599,7 +22599,7 @@
       <c r="M107" s="46"/>
     </row>
     <row r="108" spans="1:14" ht="66" customHeight="1">
-      <c r="A108" s="152"/>
+      <c r="A108" s="150"/>
       <c r="B108" s="43">
         <v>98</v>
       </c>
@@ -22630,7 +22630,7 @@
       <c r="M108" s="46"/>
     </row>
     <row r="109" spans="1:14" ht="66" customHeight="1">
-      <c r="A109" s="152"/>
+      <c r="A109" s="150"/>
       <c r="B109" s="43">
         <v>99</v>
       </c>
@@ -22661,7 +22661,7 @@
       <c r="M109" s="46"/>
     </row>
     <row r="110" spans="1:14" ht="66" customHeight="1">
-      <c r="A110" s="152"/>
+      <c r="A110" s="150"/>
       <c r="B110" s="43">
         <v>100</v>
       </c>
@@ -22692,7 +22692,7 @@
       <c r="M110" s="46"/>
     </row>
     <row r="111" spans="1:14" ht="66" customHeight="1">
-      <c r="A111" s="152"/>
+      <c r="A111" s="150"/>
       <c r="B111" s="43">
         <v>101</v>
       </c>
@@ -22756,7 +22756,7 @@
       <c r="M112" s="46"/>
     </row>
     <row r="113" spans="1:13" ht="53.25" customHeight="1">
-      <c r="A113" s="153" t="s">
+      <c r="A113" s="154" t="s">
         <v>384</v>
       </c>
       <c r="B113" s="97" t="s">
@@ -22789,7 +22789,7 @@
       <c r="M113" s="46"/>
     </row>
     <row r="114" spans="1:13" ht="53.25" customHeight="1">
-      <c r="A114" s="154"/>
+      <c r="A114" s="155"/>
       <c r="B114" s="97" t="s">
         <v>390</v>
       </c>
@@ -22820,7 +22820,7 @@
       <c r="M114" s="46"/>
     </row>
     <row r="115" spans="1:13" ht="66" customHeight="1">
-      <c r="A115" s="154"/>
+      <c r="A115" s="155"/>
       <c r="B115" s="97" t="s">
         <v>393</v>
       </c>
@@ -22851,7 +22851,7 @@
       <c r="M115" s="46"/>
     </row>
     <row r="116" spans="1:13" ht="66" customHeight="1">
-      <c r="A116" s="154"/>
+      <c r="A116" s="155"/>
       <c r="B116" s="97" t="s">
         <v>397</v>
       </c>
@@ -22882,7 +22882,7 @@
       <c r="M116" s="46"/>
     </row>
     <row r="117" spans="1:13" ht="66" customHeight="1">
-      <c r="A117" s="154"/>
+      <c r="A117" s="155"/>
       <c r="B117" s="97" t="s">
         <v>401</v>
       </c>
@@ -22913,7 +22913,7 @@
       <c r="M117" s="46"/>
     </row>
     <row r="118" spans="1:13" ht="66" customHeight="1">
-      <c r="A118" s="154"/>
+      <c r="A118" s="155"/>
       <c r="B118" s="97" t="s">
         <v>404</v>
       </c>
@@ -22944,7 +22944,7 @@
       <c r="M118" s="46"/>
     </row>
     <row r="119" spans="1:13" ht="66" customHeight="1">
-      <c r="A119" s="154"/>
+      <c r="A119" s="155"/>
       <c r="B119" s="97" t="s">
         <v>407</v>
       </c>
@@ -22975,7 +22975,7 @@
       <c r="M119" s="46"/>
     </row>
     <row r="120" spans="1:13" ht="21" customHeight="1">
-      <c r="A120" s="155"/>
+      <c r="A120" s="156"/>
       <c r="B120" s="97" t="s">
         <v>411</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="M120" s="46"/>
     </row>
     <row r="121" spans="1:13" ht="21" customHeight="1">
-      <c r="A121" s="157" t="s">
+      <c r="A121" s="158" t="s">
         <v>414</v>
       </c>
       <c r="B121" s="83" t="s">
@@ -23029,7 +23029,7 @@
       <c r="M121" s="46"/>
     </row>
     <row r="122" spans="1:13" ht="66" customHeight="1">
-      <c r="A122" s="158"/>
+      <c r="A122" s="159"/>
       <c r="B122" s="83" t="s">
         <v>420</v>
       </c>
@@ -23060,7 +23060,7 @@
       <c r="M122" s="46"/>
     </row>
     <row r="123" spans="1:13" ht="66" customHeight="1">
-      <c r="A123" s="158"/>
+      <c r="A123" s="159"/>
       <c r="B123" s="83" t="s">
         <v>425</v>
       </c>
@@ -23091,7 +23091,7 @@
       <c r="M123" s="46"/>
     </row>
     <row r="124" spans="1:13" ht="48" customHeight="1">
-      <c r="A124" s="158"/>
+      <c r="A124" s="159"/>
       <c r="B124" s="83" t="s">
         <v>428</v>
       </c>
@@ -23118,7 +23118,7 @@
       <c r="M124" s="46"/>
     </row>
     <row r="125" spans="1:13" ht="66" customHeight="1">
-      <c r="A125" s="158"/>
+      <c r="A125" s="159"/>
       <c r="B125" s="83" t="s">
         <v>430</v>
       </c>
@@ -23149,7 +23149,7 @@
       <c r="M125" s="46"/>
     </row>
     <row r="126" spans="1:13" ht="66" customHeight="1">
-      <c r="A126" s="158"/>
+      <c r="A126" s="159"/>
       <c r="B126" s="83" t="s">
         <v>433</v>
       </c>
@@ -23180,7 +23180,7 @@
       <c r="M126" s="46"/>
     </row>
     <row r="127" spans="1:13" ht="66" customHeight="1">
-      <c r="A127" s="158"/>
+      <c r="A127" s="159"/>
       <c r="B127" s="83" t="s">
         <v>438</v>
       </c>
@@ -23211,7 +23211,7 @@
       <c r="M127" s="46"/>
     </row>
     <row r="128" spans="1:13" ht="66" customHeight="1">
-      <c r="A128" s="158"/>
+      <c r="A128" s="159"/>
       <c r="B128" s="83" t="s">
         <v>442</v>
       </c>
@@ -23242,7 +23242,7 @@
       <c r="M128" s="46"/>
     </row>
     <row r="129" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A129" s="159"/>
+      <c r="A129" s="160"/>
       <c r="B129" s="83" t="s">
         <v>446</v>
       </c>
@@ -23263,7 +23263,7 @@
       <c r="M129" s="46"/>
     </row>
     <row r="130" spans="1:13" ht="69" customHeight="1">
-      <c r="A130" s="156" t="s">
+      <c r="A130" s="157" t="s">
         <v>448</v>
       </c>
       <c r="B130" s="83" t="s">
@@ -23298,7 +23298,7 @@
       <c r="M130" s="46"/>
     </row>
     <row r="131" spans="1:13" ht="69" customHeight="1">
-      <c r="A131" s="156"/>
+      <c r="A131" s="157"/>
       <c r="B131" s="83" t="s">
         <v>455</v>
       </c>
@@ -23331,7 +23331,7 @@
       <c r="M131" s="46"/>
     </row>
     <row r="132" spans="1:13" ht="69" customHeight="1">
-      <c r="A132" s="156"/>
+      <c r="A132" s="157"/>
       <c r="B132" s="83" t="s">
         <v>458</v>
       </c>
@@ -23350,7 +23350,7 @@
       <c r="M132" s="46"/>
     </row>
     <row r="133" spans="1:13" ht="59.25" customHeight="1">
-      <c r="A133" s="156"/>
+      <c r="A133" s="157"/>
       <c r="B133" s="83" t="s">
         <v>460</v>
       </c>
@@ -23381,7 +23381,7 @@
       <c r="M133" s="46"/>
     </row>
     <row r="134" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A134" s="156"/>
+      <c r="A134" s="157"/>
       <c r="B134" s="83" t="s">
         <v>464</v>
       </c>
@@ -23412,7 +23412,7 @@
       <c r="M134" s="46"/>
     </row>
     <row r="135" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A135" s="156"/>
+      <c r="A135" s="157"/>
       <c r="B135" s="83" t="s">
         <v>467</v>
       </c>
@@ -23443,7 +23443,7 @@
       <c r="M135" s="46"/>
     </row>
     <row r="136" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A136" s="156"/>
+      <c r="A136" s="157"/>
       <c r="B136" s="83" t="s">
         <v>470</v>
       </c>
@@ -23470,7 +23470,7 @@
       <c r="M136" s="46"/>
     </row>
     <row r="137" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A137" s="156"/>
+      <c r="A137" s="157"/>
       <c r="B137" s="83" t="s">
         <v>473</v>
       </c>
@@ -23497,7 +23497,7 @@
       <c r="M137" s="46"/>
     </row>
     <row r="138" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A138" s="156"/>
+      <c r="A138" s="157"/>
       <c r="B138" s="83" t="s">
         <v>476</v>
       </c>
@@ -23524,7 +23524,7 @@
       <c r="M138" s="46"/>
     </row>
     <row r="139" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A139" s="156"/>
+      <c r="A139" s="157"/>
       <c r="B139" s="83" t="s">
         <v>479</v>
       </c>
@@ -23551,7 +23551,7 @@
       <c r="M139" s="46"/>
     </row>
     <row r="140" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A140" s="156"/>
+      <c r="A140" s="157"/>
       <c r="B140" s="83" t="s">
         <v>481</v>
       </c>
@@ -23580,7 +23580,7 @@
       <c r="M140" s="46"/>
     </row>
     <row r="141" spans="1:13" ht="48" customHeight="1">
-      <c r="A141" s="156"/>
+      <c r="A141" s="157"/>
       <c r="B141" s="83" t="s">
         <v>486</v>
       </c>
@@ -23609,7 +23609,7 @@
       <c r="M141" s="46"/>
     </row>
     <row r="142" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A142" s="156"/>
+      <c r="A142" s="157"/>
       <c r="B142" s="83" t="s">
         <v>490</v>
       </c>
@@ -23640,7 +23640,7 @@
       <c r="M142" s="46"/>
     </row>
     <row r="143" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A143" s="156"/>
+      <c r="A143" s="157"/>
       <c r="B143" s="83" t="s">
         <v>495</v>
       </c>
@@ -23669,7 +23669,7 @@
       <c r="M143" s="46"/>
     </row>
     <row r="144" spans="1:13" ht="51" customHeight="1">
-      <c r="A144" s="157" t="s">
+      <c r="A144" s="158" t="s">
         <v>499</v>
       </c>
       <c r="B144" s="83" t="s">
@@ -23702,7 +23702,7 @@
       <c r="M144" s="46"/>
     </row>
     <row r="145" spans="1:13" ht="60" customHeight="1">
-      <c r="A145" s="158"/>
+      <c r="A145" s="159"/>
       <c r="B145" s="83" t="s">
         <v>504</v>
       </c>
@@ -23733,7 +23733,7 @@
       <c r="M145" s="46"/>
     </row>
     <row r="146" spans="1:13" ht="60" customHeight="1">
-      <c r="A146" s="158"/>
+      <c r="A146" s="159"/>
       <c r="B146" s="83" t="s">
         <v>507</v>
       </c>
@@ -23764,7 +23764,7 @@
       <c r="M146" s="46"/>
     </row>
     <row r="147" spans="1:13" ht="60" customHeight="1">
-      <c r="A147" s="158"/>
+      <c r="A147" s="159"/>
       <c r="B147" s="83" t="s">
         <v>511</v>
       </c>
@@ -23795,7 +23795,7 @@
       <c r="M147" s="46"/>
     </row>
     <row r="148" spans="1:13" ht="60" customHeight="1">
-      <c r="A148" s="158"/>
+      <c r="A148" s="159"/>
       <c r="B148" s="83" t="s">
         <v>514</v>
       </c>
@@ -23826,7 +23826,7 @@
       <c r="M148" s="46"/>
     </row>
     <row r="149" spans="1:13" ht="60" customHeight="1">
-      <c r="A149" s="159"/>
+      <c r="A149" s="160"/>
       <c r="B149" s="83" t="s">
         <v>517</v>
       </c>
@@ -23855,7 +23855,7 @@
       <c r="M149" s="46"/>
     </row>
     <row r="150" spans="1:13" ht="60" customHeight="1">
-      <c r="A150" s="157" t="s">
+      <c r="A150" s="158" t="s">
         <v>519</v>
       </c>
       <c r="B150" s="83" t="s">
@@ -23888,7 +23888,7 @@
       <c r="M150" s="46"/>
     </row>
     <row r="151" spans="1:13" ht="60" customHeight="1">
-      <c r="A151" s="158"/>
+      <c r="A151" s="159"/>
       <c r="B151" s="83" t="s">
         <v>525</v>
       </c>
@@ -23919,7 +23919,7 @@
       <c r="M151" s="46"/>
     </row>
     <row r="152" spans="1:13" ht="60" customHeight="1">
-      <c r="A152" s="158"/>
+      <c r="A152" s="159"/>
       <c r="B152" s="83" t="s">
         <v>527</v>
       </c>
@@ -23950,7 +23950,7 @@
       <c r="M152" s="46"/>
     </row>
     <row r="153" spans="1:13" ht="60" customHeight="1">
-      <c r="A153" s="158"/>
+      <c r="A153" s="159"/>
       <c r="B153" s="83" t="s">
         <v>529</v>
       </c>
@@ -23981,7 +23981,7 @@
       <c r="M153" s="46"/>
     </row>
     <row r="154" spans="1:13" ht="60" customHeight="1">
-      <c r="A154" s="159"/>
+      <c r="A154" s="160"/>
       <c r="B154" s="83" t="s">
         <v>532</v>
       </c>
@@ -24012,7 +24012,7 @@
       <c r="M154" s="46"/>
     </row>
     <row r="155" spans="1:13" ht="66" customHeight="1">
-      <c r="A155" s="152" t="s">
+      <c r="A155" s="150" t="s">
         <v>534</v>
       </c>
       <c r="B155" s="43">
@@ -24045,7 +24045,7 @@
       <c r="M155" s="46"/>
     </row>
     <row r="156" spans="1:13" ht="66" customHeight="1">
-      <c r="A156" s="152"/>
+      <c r="A156" s="150"/>
       <c r="B156" s="43">
         <v>104</v>
       </c>
@@ -24076,7 +24076,7 @@
       <c r="M156" s="46"/>
     </row>
     <row r="157" spans="1:13" ht="66" customHeight="1">
-      <c r="A157" s="152"/>
+      <c r="A157" s="150"/>
       <c r="B157" s="43">
         <v>105</v>
       </c>
@@ -24107,7 +24107,7 @@
       <c r="M157" s="46"/>
     </row>
     <row r="158" spans="1:13" ht="66" customHeight="1">
-      <c r="A158" s="152"/>
+      <c r="A158" s="150"/>
       <c r="B158" s="43">
         <v>106</v>
       </c>
@@ -24138,7 +24138,7 @@
       <c r="M158" s="46"/>
     </row>
     <row r="159" spans="1:13" ht="66" customHeight="1">
-      <c r="A159" s="152"/>
+      <c r="A159" s="150"/>
       <c r="B159" s="43">
         <v>107</v>
       </c>
@@ -24169,7 +24169,7 @@
       <c r="M159" s="46"/>
     </row>
     <row r="160" spans="1:13" ht="66" customHeight="1">
-      <c r="A160" s="152"/>
+      <c r="A160" s="150"/>
       <c r="B160" s="43">
         <v>108</v>
       </c>
@@ -24204,7 +24204,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="66" customHeight="1">
-      <c r="A161" s="152"/>
+      <c r="A161" s="150"/>
       <c r="B161" s="43">
         <v>109</v>
       </c>
@@ -24239,7 +24239,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="66" customHeight="1">
-      <c r="A162" s="152"/>
+      <c r="A162" s="150"/>
       <c r="B162" s="43">
         <v>110</v>
       </c>
@@ -24270,7 +24270,7 @@
       <c r="M162" s="46"/>
     </row>
     <row r="163" spans="1:13" ht="66" customHeight="1">
-      <c r="A163" s="152"/>
+      <c r="A163" s="150"/>
       <c r="B163" s="43">
         <v>111</v>
       </c>
@@ -24417,7 +24417,7 @@
       <c r="M169" s="46"/>
     </row>
     <row r="170" spans="1:13" s="87" customFormat="1" ht="75" customHeight="1">
-      <c r="A170" s="149" t="s">
+      <c r="A170" s="151" t="s">
         <v>574</v>
       </c>
       <c r="B170" s="83">
@@ -24450,7 +24450,7 @@
       <c r="M170" s="86"/>
     </row>
     <row r="171" spans="1:13" s="87" customFormat="1" ht="75" customHeight="1">
-      <c r="A171" s="150"/>
+      <c r="A171" s="152"/>
       <c r="B171" s="83" t="s">
         <v>579</v>
       </c>
@@ -24477,7 +24477,7 @@
       <c r="M171" s="86"/>
     </row>
     <row r="172" spans="1:13" ht="66" customHeight="1">
-      <c r="A172" s="150"/>
+      <c r="A172" s="152"/>
       <c r="B172" s="43">
         <v>113</v>
       </c>
@@ -24508,7 +24508,7 @@
       <c r="M172" s="46"/>
     </row>
     <row r="173" spans="1:13" ht="66" customHeight="1">
-      <c r="A173" s="150"/>
+      <c r="A173" s="152"/>
       <c r="B173" s="43">
         <v>114</v>
       </c>
@@ -24539,7 +24539,7 @@
       <c r="M173" s="46"/>
     </row>
     <row r="174" spans="1:13" ht="66" customHeight="1">
-      <c r="A174" s="150"/>
+      <c r="A174" s="152"/>
       <c r="B174" s="43">
         <v>115</v>
       </c>
@@ -24570,7 +24570,7 @@
       <c r="M174" s="46"/>
     </row>
     <row r="175" spans="1:13" ht="66" customHeight="1">
-      <c r="A175" s="150"/>
+      <c r="A175" s="152"/>
       <c r="B175" s="43" t="s">
         <v>589</v>
       </c>
@@ -24601,7 +24601,7 @@
       <c r="M175" s="46"/>
     </row>
     <row r="176" spans="1:13" ht="66" customHeight="1">
-      <c r="A176" s="150"/>
+      <c r="A176" s="152"/>
       <c r="B176" s="43" t="s">
         <v>592</v>
       </c>
@@ -24632,7 +24632,7 @@
       <c r="M176" s="46"/>
     </row>
     <row r="177" spans="1:13" ht="66" customHeight="1">
-      <c r="A177" s="150"/>
+      <c r="A177" s="152"/>
       <c r="B177" s="43">
         <v>116</v>
       </c>
@@ -24663,7 +24663,7 @@
       <c r="M177" s="46"/>
     </row>
     <row r="178" spans="1:13" ht="66" customHeight="1">
-      <c r="A178" s="150"/>
+      <c r="A178" s="152"/>
       <c r="B178" s="43" t="s">
         <v>599</v>
       </c>
@@ -24694,7 +24694,7 @@
       <c r="M178" s="46"/>
     </row>
     <row r="179" spans="1:13" ht="66" customHeight="1">
-      <c r="A179" s="150"/>
+      <c r="A179" s="152"/>
       <c r="B179" s="43">
         <v>117</v>
       </c>
@@ -24725,7 +24725,7 @@
       <c r="M179" s="46"/>
     </row>
     <row r="180" spans="1:13" ht="66" customHeight="1">
-      <c r="A180" s="150"/>
+      <c r="A180" s="152"/>
       <c r="B180" s="43">
         <v>118</v>
       </c>
@@ -24756,7 +24756,7 @@
       <c r="M180" s="46"/>
     </row>
     <row r="181" spans="1:13" ht="66" customHeight="1">
-      <c r="A181" s="150"/>
+      <c r="A181" s="152"/>
       <c r="B181" s="43">
         <v>119</v>
       </c>
@@ -24787,7 +24787,7 @@
       <c r="M181" s="46"/>
     </row>
     <row r="182" spans="1:13" ht="66" customHeight="1">
-      <c r="A182" s="150"/>
+      <c r="A182" s="152"/>
       <c r="B182" s="43">
         <v>120</v>
       </c>
@@ -24818,7 +24818,7 @@
       <c r="M182" s="46"/>
     </row>
     <row r="183" spans="1:13" ht="66" customHeight="1">
-      <c r="A183" s="150"/>
+      <c r="A183" s="152"/>
       <c r="B183" s="43">
         <v>121</v>
       </c>
@@ -24849,7 +24849,7 @@
       <c r="M183" s="46"/>
     </row>
     <row r="184" spans="1:13" ht="66" customHeight="1">
-      <c r="A184" s="150"/>
+      <c r="A184" s="152"/>
       <c r="B184" s="43">
         <v>122</v>
       </c>
@@ -24880,7 +24880,7 @@
       <c r="M184" s="46"/>
     </row>
     <row r="185" spans="1:13" ht="66" customHeight="1">
-      <c r="A185" s="150"/>
+      <c r="A185" s="152"/>
       <c r="B185" s="43">
         <v>123</v>
       </c>
@@ -24909,7 +24909,7 @@
       <c r="M185" s="46"/>
     </row>
     <row r="186" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A186" s="150"/>
+      <c r="A186" s="152"/>
       <c r="B186" s="96" t="s">
         <v>624</v>
       </c>
@@ -24940,7 +24940,7 @@
       <c r="M186" s="86"/>
     </row>
     <row r="187" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A187" s="150"/>
+      <c r="A187" s="152"/>
       <c r="B187" s="96" t="s">
         <v>629</v>
       </c>
@@ -24971,7 +24971,7 @@
       <c r="M187" s="86"/>
     </row>
     <row r="188" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A188" s="150"/>
+      <c r="A188" s="152"/>
       <c r="B188" s="96" t="s">
         <v>633</v>
       </c>
@@ -25002,7 +25002,7 @@
       <c r="M188" s="86"/>
     </row>
     <row r="189" spans="1:13" ht="66" customHeight="1">
-      <c r="A189" s="152" t="s">
+      <c r="A189" s="150" t="s">
         <v>637</v>
       </c>
       <c r="B189" s="43">
@@ -25035,7 +25035,7 @@
       <c r="M189" s="46"/>
     </row>
     <row r="190" spans="1:13" ht="66" customHeight="1">
-      <c r="A190" s="152"/>
+      <c r="A190" s="150"/>
       <c r="B190" s="43">
         <v>125</v>
       </c>
@@ -25066,7 +25066,7 @@
       <c r="M190" s="46"/>
     </row>
     <row r="191" spans="1:13" ht="66" customHeight="1">
-      <c r="A191" s="152"/>
+      <c r="A191" s="150"/>
       <c r="B191" s="43">
         <v>126</v>
       </c>
@@ -25097,7 +25097,7 @@
       <c r="M191" s="46"/>
     </row>
     <row r="192" spans="1:13" ht="66" customHeight="1">
-      <c r="A192" s="152"/>
+      <c r="A192" s="150"/>
       <c r="B192" s="43">
         <v>127</v>
       </c>
@@ -25128,7 +25128,7 @@
       <c r="M192" s="46"/>
     </row>
     <row r="193" spans="1:13" ht="66" customHeight="1">
-      <c r="A193" s="152" t="s">
+      <c r="A193" s="150" t="s">
         <v>651</v>
       </c>
       <c r="B193" s="43">
@@ -25161,7 +25161,7 @@
       <c r="M193" s="46"/>
     </row>
     <row r="194" spans="1:13" ht="66" customHeight="1">
-      <c r="A194" s="152"/>
+      <c r="A194" s="150"/>
       <c r="B194" s="43">
         <v>129</v>
       </c>
@@ -25194,7 +25194,7 @@
       </c>
     </row>
     <row r="195" spans="1:13" ht="66" customHeight="1">
-      <c r="A195" s="152"/>
+      <c r="A195" s="150"/>
       <c r="B195" s="43">
         <v>130</v>
       </c>
@@ -25225,7 +25225,7 @@
       <c r="M195" s="46"/>
     </row>
     <row r="196" spans="1:13" ht="66" customHeight="1">
-      <c r="A196" s="152"/>
+      <c r="A196" s="150"/>
       <c r="B196" s="43">
         <v>131</v>
       </c>
@@ -25256,7 +25256,7 @@
       <c r="M196" s="46"/>
     </row>
     <row r="197" spans="1:13" ht="66" customHeight="1">
-      <c r="A197" s="152"/>
+      <c r="A197" s="150"/>
       <c r="B197" s="43">
         <v>132</v>
       </c>
@@ -25287,7 +25287,7 @@
       <c r="M197" s="46"/>
     </row>
     <row r="198" spans="1:13" ht="66" customHeight="1">
-      <c r="A198" s="152" t="s">
+      <c r="A198" s="150" t="s">
         <v>670</v>
       </c>
       <c r="B198" s="43">
@@ -25320,7 +25320,7 @@
       <c r="M198" s="46"/>
     </row>
     <row r="199" spans="1:13" ht="66" customHeight="1">
-      <c r="A199" s="152"/>
+      <c r="A199" s="150"/>
       <c r="B199" s="43">
         <v>134</v>
       </c>
@@ -25353,7 +25353,7 @@
       </c>
     </row>
     <row r="200" spans="1:13" ht="66" customHeight="1">
-      <c r="A200" s="152"/>
+      <c r="A200" s="150"/>
       <c r="B200" s="43">
         <v>135</v>
       </c>
@@ -25384,7 +25384,7 @@
       <c r="M200" s="46"/>
     </row>
     <row r="201" spans="1:13" ht="66" customHeight="1">
-      <c r="A201" s="152"/>
+      <c r="A201" s="150"/>
       <c r="B201" s="43">
         <v>136</v>
       </c>
@@ -25415,7 +25415,7 @@
       <c r="M201" s="46"/>
     </row>
     <row r="202" spans="1:13" ht="66" customHeight="1">
-      <c r="A202" s="152"/>
+      <c r="A202" s="150"/>
       <c r="B202" s="43">
         <v>137</v>
       </c>
@@ -25446,7 +25446,7 @@
       <c r="M202" s="46"/>
     </row>
     <row r="203" spans="1:13" ht="66" customHeight="1">
-      <c r="A203" s="152"/>
+      <c r="A203" s="150"/>
       <c r="B203" s="43">
         <v>138</v>
       </c>
@@ -25477,7 +25477,7 @@
       <c r="M203" s="46"/>
     </row>
     <row r="204" spans="1:13" ht="66" customHeight="1">
-      <c r="A204" s="152"/>
+      <c r="A204" s="150"/>
       <c r="B204" s="43">
         <v>139</v>
       </c>
@@ -25508,7 +25508,7 @@
       <c r="M204" s="46"/>
     </row>
     <row r="205" spans="1:13" ht="66" customHeight="1">
-      <c r="A205" s="152" t="s">
+      <c r="A205" s="150" t="s">
         <v>698</v>
       </c>
       <c r="B205" s="43">
@@ -25543,7 +25543,7 @@
       </c>
     </row>
     <row r="206" spans="1:13" ht="66" customHeight="1">
-      <c r="A206" s="152"/>
+      <c r="A206" s="150"/>
       <c r="B206" s="43">
         <v>141</v>
       </c>
@@ -25574,7 +25574,7 @@
       <c r="M206" s="46"/>
     </row>
     <row r="207" spans="1:13" ht="66" customHeight="1">
-      <c r="A207" s="152"/>
+      <c r="A207" s="150"/>
       <c r="B207" s="43">
         <v>142</v>
       </c>
@@ -25605,7 +25605,7 @@
       <c r="M207" s="46"/>
     </row>
     <row r="208" spans="1:13" ht="66" customHeight="1">
-      <c r="A208" s="152" t="s">
+      <c r="A208" s="150" t="s">
         <v>711</v>
       </c>
       <c r="B208" s="43">
@@ -25638,7 +25638,7 @@
       <c r="M208" s="46"/>
     </row>
     <row r="209" spans="1:13" ht="66" customHeight="1">
-      <c r="A209" s="152"/>
+      <c r="A209" s="150"/>
       <c r="B209" s="43">
         <v>144</v>
       </c>
@@ -25669,7 +25669,7 @@
       <c r="M209" s="46"/>
     </row>
     <row r="210" spans="1:13" ht="66" customHeight="1">
-      <c r="A210" s="152"/>
+      <c r="A210" s="150"/>
       <c r="B210" s="43">
         <v>145</v>
       </c>
@@ -25700,7 +25700,7 @@
       <c r="M210" s="46"/>
     </row>
     <row r="211" spans="1:13" ht="66" customHeight="1">
-      <c r="A211" s="152"/>
+      <c r="A211" s="150"/>
       <c r="B211" s="43">
         <v>146</v>
       </c>
@@ -25731,7 +25731,7 @@
       <c r="M211" s="46"/>
     </row>
     <row r="212" spans="1:13" ht="66" customHeight="1">
-      <c r="A212" s="152"/>
+      <c r="A212" s="150"/>
       <c r="B212" s="43">
         <v>147</v>
       </c>
@@ -25762,7 +25762,7 @@
       <c r="M212" s="46"/>
     </row>
     <row r="213" spans="1:13" ht="66" customHeight="1">
-      <c r="A213" s="152"/>
+      <c r="A213" s="150"/>
       <c r="B213" s="43">
         <v>148</v>
       </c>
@@ -25793,7 +25793,7 @@
       <c r="M213" s="46"/>
     </row>
     <row r="214" spans="1:13" ht="66" customHeight="1">
-      <c r="A214" s="149" t="s">
+      <c r="A214" s="151" t="s">
         <v>729</v>
       </c>
       <c r="B214" s="43">
@@ -25826,7 +25826,7 @@
       <c r="M214" s="46"/>
     </row>
     <row r="215" spans="1:13" ht="66" customHeight="1">
-      <c r="A215" s="150"/>
+      <c r="A215" s="152"/>
       <c r="B215" s="43">
         <v>150</v>
       </c>
@@ -25859,7 +25859,7 @@
       </c>
     </row>
     <row r="216" spans="1:13" ht="66" customHeight="1">
-      <c r="A216" s="150"/>
+      <c r="A216" s="152"/>
       <c r="B216" s="43">
         <v>151</v>
       </c>
@@ -25890,7 +25890,7 @@
       <c r="M216" s="46"/>
     </row>
     <row r="217" spans="1:13" ht="66" customHeight="1">
-      <c r="A217" s="150"/>
+      <c r="A217" s="152"/>
       <c r="B217" s="43">
         <v>152</v>
       </c>
@@ -25921,7 +25921,7 @@
       <c r="M217" s="46"/>
     </row>
     <row r="218" spans="1:13" ht="66" customHeight="1">
-      <c r="A218" s="150"/>
+      <c r="A218" s="152"/>
       <c r="B218" s="43">
         <v>153</v>
       </c>
@@ -25952,7 +25952,7 @@
       <c r="M218" s="46"/>
     </row>
     <row r="219" spans="1:13" ht="66" customHeight="1">
-      <c r="A219" s="150"/>
+      <c r="A219" s="152"/>
       <c r="B219" s="43">
         <v>154</v>
       </c>
@@ -25983,7 +25983,7 @@
       <c r="M219" s="46"/>
     </row>
     <row r="220" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A220" s="150"/>
+      <c r="A220" s="152"/>
       <c r="B220" s="43" t="s">
         <v>745</v>
       </c>
@@ -26014,7 +26014,7 @@
       <c r="M220" s="46"/>
     </row>
     <row r="221" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A221" s="150"/>
+      <c r="A221" s="152"/>
       <c r="B221" s="97" t="s">
         <v>750</v>
       </c>
@@ -26045,7 +26045,7 @@
       <c r="M221" s="46"/>
     </row>
     <row r="222" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A222" s="150"/>
+      <c r="A222" s="152"/>
       <c r="B222" s="97" t="s">
         <v>753</v>
       </c>
@@ -26076,7 +26076,7 @@
       <c r="M222" s="46"/>
     </row>
     <row r="223" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A223" s="150"/>
+      <c r="A223" s="152"/>
       <c r="B223" s="97" t="s">
         <v>756</v>
       </c>
@@ -26107,7 +26107,7 @@
       <c r="M223" s="46"/>
     </row>
     <row r="224" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A224" s="150"/>
+      <c r="A224" s="152"/>
       <c r="B224" s="97" t="s">
         <v>759</v>
       </c>
@@ -26138,7 +26138,7 @@
       <c r="M224" s="46"/>
     </row>
     <row r="225" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A225" s="151"/>
+      <c r="A225" s="153"/>
       <c r="B225" s="97" t="s">
         <v>761</v>
       </c>
@@ -26169,7 +26169,7 @@
       <c r="M225" s="46"/>
     </row>
     <row r="226" spans="1:13" ht="66" customHeight="1">
-      <c r="A226" s="149" t="s">
+      <c r="A226" s="151" t="s">
         <v>763</v>
       </c>
       <c r="B226" s="43">
@@ -26196,7 +26196,7 @@
       <c r="M226" s="46"/>
     </row>
     <row r="227" spans="1:13" s="92" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A227" s="150"/>
+      <c r="A227" s="152"/>
       <c r="B227" s="96">
         <v>156</v>
       </c>
@@ -26227,7 +26227,7 @@
       <c r="M227" s="91"/>
     </row>
     <row r="228" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A228" s="150"/>
+      <c r="A228" s="152"/>
       <c r="B228" s="96">
         <v>158</v>
       </c>
@@ -26258,7 +26258,7 @@
       <c r="M228" s="86"/>
     </row>
     <row r="229" spans="1:13" ht="66" customHeight="1">
-      <c r="A229" s="150"/>
+      <c r="A229" s="152"/>
       <c r="B229" s="43">
         <v>159</v>
       </c>
@@ -26289,7 +26289,7 @@
       <c r="M229" s="46"/>
     </row>
     <row r="230" spans="1:13" ht="66" customHeight="1">
-      <c r="A230" s="150"/>
+      <c r="A230" s="152"/>
       <c r="B230" s="43">
         <v>160</v>
       </c>
@@ -26320,7 +26320,7 @@
       <c r="M230" s="46"/>
     </row>
     <row r="231" spans="1:13" ht="66" customHeight="1">
-      <c r="A231" s="150"/>
+      <c r="A231" s="152"/>
       <c r="B231" s="43">
         <v>162</v>
       </c>
@@ -26351,7 +26351,7 @@
       <c r="M231" s="46"/>
     </row>
     <row r="232" spans="1:13" ht="66" customHeight="1">
-      <c r="A232" s="150"/>
+      <c r="A232" s="152"/>
       <c r="B232" s="43">
         <v>163</v>
       </c>
@@ -26382,7 +26382,7 @@
       <c r="M232" s="46"/>
     </row>
     <row r="233" spans="1:13" ht="66" customHeight="1">
-      <c r="A233" s="150"/>
+      <c r="A233" s="152"/>
       <c r="B233" s="43" t="s">
         <v>785</v>
       </c>
@@ -26411,7 +26411,7 @@
       <c r="M233" s="46"/>
     </row>
     <row r="234" spans="1:13" ht="66" customHeight="1">
-      <c r="A234" s="150"/>
+      <c r="A234" s="152"/>
       <c r="B234" s="43" t="s">
         <v>789</v>
       </c>
@@ -26440,7 +26440,7 @@
       <c r="M234" s="46"/>
     </row>
     <row r="235" spans="1:13" ht="66" customHeight="1">
-      <c r="A235" s="150"/>
+      <c r="A235" s="152"/>
       <c r="B235" s="43">
         <v>164</v>
       </c>
@@ -26471,7 +26471,7 @@
       <c r="M235" s="46"/>
     </row>
     <row r="236" spans="1:13" ht="66" customHeight="1">
-      <c r="A236" s="150"/>
+      <c r="A236" s="152"/>
       <c r="B236" s="43" t="s">
         <v>795</v>
       </c>
@@ -26502,7 +26502,7 @@
       <c r="M236" s="46"/>
     </row>
     <row r="237" spans="1:13" ht="66" customHeight="1">
-      <c r="A237" s="150"/>
+      <c r="A237" s="152"/>
       <c r="B237" s="43" t="s">
         <v>799</v>
       </c>
@@ -26533,7 +26533,7 @@
       <c r="M237" s="46"/>
     </row>
     <row r="238" spans="1:13" ht="66" customHeight="1">
-      <c r="A238" s="150"/>
+      <c r="A238" s="152"/>
       <c r="B238" s="43" t="s">
         <v>803</v>
       </c>
@@ -26564,7 +26564,7 @@
       <c r="M238" s="46"/>
     </row>
     <row r="239" spans="1:13" ht="66" customHeight="1">
-      <c r="A239" s="150"/>
+      <c r="A239" s="152"/>
       <c r="B239" s="43">
         <v>165</v>
       </c>
@@ -26595,7 +26595,7 @@
       <c r="M239" s="46"/>
     </row>
     <row r="240" spans="1:13" ht="66" customHeight="1">
-      <c r="A240" s="150"/>
+      <c r="A240" s="152"/>
       <c r="B240" s="43" t="s">
         <v>810</v>
       </c>
@@ -26628,7 +26628,7 @@
       </c>
     </row>
     <row r="241" spans="1:13" ht="66" customHeight="1">
-      <c r="A241" s="150"/>
+      <c r="A241" s="152"/>
       <c r="B241" s="43" t="s">
         <v>815</v>
       </c>
@@ -26663,7 +26663,7 @@
       </c>
     </row>
     <row r="242" spans="1:13" ht="66" customHeight="1">
-      <c r="A242" s="150"/>
+      <c r="A242" s="152"/>
       <c r="B242" s="43" t="s">
         <v>820</v>
       </c>
@@ -26698,7 +26698,7 @@
       </c>
     </row>
     <row r="243" spans="1:13" ht="66" customHeight="1">
-      <c r="A243" s="150"/>
+      <c r="A243" s="152"/>
       <c r="B243" s="43" t="s">
         <v>827</v>
       </c>
@@ -26729,7 +26729,7 @@
       <c r="M243" s="46"/>
     </row>
     <row r="244" spans="1:13" ht="66" customHeight="1">
-      <c r="A244" s="150"/>
+      <c r="A244" s="152"/>
       <c r="B244" s="43" t="s">
         <v>832</v>
       </c>
@@ -26760,7 +26760,7 @@
       <c r="M244" s="46"/>
     </row>
     <row r="245" spans="1:13" ht="66" customHeight="1">
-      <c r="A245" s="150"/>
+      <c r="A245" s="152"/>
       <c r="B245" s="43" t="s">
         <v>836</v>
       </c>
@@ -26795,7 +26795,7 @@
       </c>
     </row>
     <row r="246" spans="1:13" ht="66" customHeight="1">
-      <c r="A246" s="150"/>
+      <c r="A246" s="152"/>
       <c r="B246" s="43" t="s">
         <v>840</v>
       </c>
@@ -26830,7 +26830,7 @@
       </c>
     </row>
     <row r="247" spans="1:13" ht="66" customHeight="1">
-      <c r="A247" s="150"/>
+      <c r="A247" s="152"/>
       <c r="B247" s="43" t="s">
         <v>843</v>
       </c>
@@ -26861,7 +26861,7 @@
       </c>
     </row>
     <row r="248" spans="1:13" ht="66" customHeight="1">
-      <c r="A248" s="150"/>
+      <c r="A248" s="152"/>
       <c r="B248" s="43" t="s">
         <v>849</v>
       </c>
@@ -26890,7 +26890,7 @@
       <c r="M248" s="46"/>
     </row>
     <row r="249" spans="1:13" ht="66" customHeight="1">
-      <c r="A249" s="150"/>
+      <c r="A249" s="152"/>
       <c r="B249" s="43" t="s">
         <v>853</v>
       </c>
@@ -26921,7 +26921,7 @@
       </c>
     </row>
     <row r="250" spans="1:13" ht="66" customHeight="1">
-      <c r="A250" s="150"/>
+      <c r="A250" s="152"/>
       <c r="B250" s="43" t="s">
         <v>858</v>
       </c>
@@ -26950,7 +26950,7 @@
       <c r="M250" s="46"/>
     </row>
     <row r="251" spans="1:13" ht="66" customHeight="1">
-      <c r="A251" s="150"/>
+      <c r="A251" s="152"/>
       <c r="B251" s="43" t="s">
         <v>863</v>
       </c>
@@ -26979,7 +26979,7 @@
       <c r="M251" s="46"/>
     </row>
     <row r="252" spans="1:13" ht="66" customHeight="1">
-      <c r="A252" s="150"/>
+      <c r="A252" s="152"/>
       <c r="B252" s="43">
         <v>166</v>
       </c>
@@ -27012,7 +27012,7 @@
       </c>
     </row>
     <row r="253" spans="1:13" ht="66" customHeight="1">
-      <c r="A253" s="150"/>
+      <c r="A253" s="152"/>
       <c r="B253" s="43">
         <v>167</v>
       </c>
@@ -27043,7 +27043,7 @@
       <c r="M253" s="42"/>
     </row>
     <row r="254" spans="1:13" ht="66" customHeight="1">
-      <c r="A254" s="150"/>
+      <c r="A254" s="152"/>
       <c r="B254" s="43">
         <v>168</v>
       </c>
@@ -27074,7 +27074,7 @@
       <c r="M254" s="46"/>
     </row>
     <row r="255" spans="1:13" ht="66" customHeight="1">
-      <c r="A255" s="150"/>
+      <c r="A255" s="152"/>
       <c r="B255" s="43">
         <v>169</v>
       </c>
@@ -27105,7 +27105,7 @@
       <c r="M255" s="46"/>
     </row>
     <row r="256" spans="1:13" ht="66" customHeight="1">
-      <c r="A256" s="150"/>
+      <c r="A256" s="152"/>
       <c r="B256" s="43">
         <v>170</v>
       </c>
@@ -27136,7 +27136,7 @@
       <c r="M256" s="46"/>
     </row>
     <row r="257" spans="1:13" ht="66" customHeight="1">
-      <c r="A257" s="150"/>
+      <c r="A257" s="152"/>
       <c r="B257" s="43">
         <v>171</v>
       </c>
@@ -27167,7 +27167,7 @@
       <c r="M257" s="46"/>
     </row>
     <row r="258" spans="1:13" ht="66" customHeight="1">
-      <c r="A258" s="150"/>
+      <c r="A258" s="152"/>
       <c r="B258" s="43" t="s">
         <v>886</v>
       </c>
@@ -27192,7 +27192,7 @@
       <c r="M258" s="46"/>
     </row>
     <row r="259" spans="1:13" ht="66" customHeight="1">
-      <c r="A259" s="150"/>
+      <c r="A259" s="152"/>
       <c r="B259" s="43">
         <v>172</v>
       </c>
@@ -27223,7 +27223,7 @@
       <c r="M259" s="46"/>
     </row>
     <row r="260" spans="1:13" ht="66" customHeight="1">
-      <c r="A260" s="150"/>
+      <c r="A260" s="152"/>
       <c r="B260" s="43" t="s">
         <v>892</v>
       </c>
@@ -27254,7 +27254,7 @@
       <c r="M260" s="46"/>
     </row>
     <row r="261" spans="1:13" ht="66" customHeight="1">
-      <c r="A261" s="150"/>
+      <c r="A261" s="152"/>
       <c r="B261" s="43" t="s">
         <v>897</v>
       </c>
@@ -27285,7 +27285,7 @@
       <c r="M261" s="46"/>
     </row>
     <row r="262" spans="1:13" ht="66" customHeight="1">
-      <c r="A262" s="150"/>
+      <c r="A262" s="152"/>
       <c r="B262" s="43">
         <v>173</v>
       </c>
@@ -27316,7 +27316,7 @@
       <c r="M262" s="46"/>
     </row>
     <row r="263" spans="1:13" ht="66" customHeight="1">
-      <c r="A263" s="150"/>
+      <c r="A263" s="152"/>
       <c r="B263" s="43">
         <v>174</v>
       </c>
@@ -27345,7 +27345,7 @@
       <c r="M263" s="46"/>
     </row>
     <row r="264" spans="1:13" ht="66" customHeight="1">
-      <c r="A264" s="150"/>
+      <c r="A264" s="152"/>
       <c r="B264" s="43">
         <v>175</v>
       </c>
@@ -27374,7 +27374,7 @@
       <c r="M264" s="46"/>
     </row>
     <row r="265" spans="1:13" ht="114.75">
-      <c r="A265" s="150"/>
+      <c r="A265" s="152"/>
       <c r="B265" s="43" t="s">
         <v>909</v>
       </c>
@@ -27405,7 +27405,7 @@
       <c r="M265" s="46"/>
     </row>
     <row r="266" spans="1:13" ht="66" customHeight="1">
-      <c r="A266" s="150"/>
+      <c r="A266" s="152"/>
       <c r="B266" s="43">
         <v>176</v>
       </c>
@@ -27436,7 +27436,7 @@
       </c>
     </row>
     <row r="267" spans="1:13" ht="66" customHeight="1">
-      <c r="A267" s="150"/>
+      <c r="A267" s="152"/>
       <c r="B267" s="43">
         <v>177</v>
       </c>
@@ -27465,7 +27465,7 @@
       <c r="M267" s="46"/>
     </row>
     <row r="268" spans="1:13" ht="51">
-      <c r="A268" s="150"/>
+      <c r="A268" s="152"/>
       <c r="B268" s="43">
         <v>178</v>
       </c>
@@ -27494,7 +27494,7 @@
       <c r="M268" s="46"/>
     </row>
     <row r="269" spans="1:13" ht="66" customHeight="1">
-      <c r="A269" s="150"/>
+      <c r="A269" s="152"/>
       <c r="B269" s="43">
         <v>179</v>
       </c>
@@ -27523,7 +27523,7 @@
       <c r="M269" s="46"/>
     </row>
     <row r="270" spans="1:13" ht="66" customHeight="1">
-      <c r="A270" s="150"/>
+      <c r="A270" s="152"/>
       <c r="B270" s="43">
         <v>180</v>
       </c>
@@ -27554,7 +27554,7 @@
       </c>
     </row>
     <row r="271" spans="1:13" ht="66" customHeight="1">
-      <c r="A271" s="150"/>
+      <c r="A271" s="152"/>
       <c r="B271" s="43">
         <v>181</v>
       </c>
@@ -27583,7 +27583,7 @@
       <c r="M271" s="46"/>
     </row>
     <row r="272" spans="1:13" ht="66" customHeight="1">
-      <c r="A272" s="150"/>
+      <c r="A272" s="152"/>
       <c r="B272" s="43">
         <v>182</v>
       </c>
@@ -27612,7 +27612,7 @@
       <c r="M272" s="46"/>
     </row>
     <row r="273" spans="1:13" ht="66" customHeight="1">
-      <c r="A273" s="150"/>
+      <c r="A273" s="152"/>
       <c r="B273" s="43">
         <v>183</v>
       </c>
@@ -27641,7 +27641,7 @@
       <c r="M273" s="46"/>
     </row>
     <row r="274" spans="1:13" ht="66" customHeight="1">
-      <c r="A274" s="150"/>
+      <c r="A274" s="152"/>
       <c r="B274" s="43">
         <v>184</v>
       </c>
@@ -27670,7 +27670,7 @@
       <c r="M274" s="46"/>
     </row>
     <row r="275" spans="1:13" ht="66" customHeight="1">
-      <c r="A275" s="150"/>
+      <c r="A275" s="152"/>
       <c r="B275" s="43">
         <v>185</v>
       </c>
@@ -27699,7 +27699,7 @@
       <c r="M275" s="46"/>
     </row>
     <row r="276" spans="1:13" ht="66" customHeight="1">
-      <c r="A276" s="150"/>
+      <c r="A276" s="152"/>
       <c r="B276" s="43">
         <v>186</v>
       </c>
@@ -27730,7 +27730,7 @@
       <c r="M276" s="46"/>
     </row>
     <row r="277" spans="1:13" ht="66" customHeight="1">
-      <c r="A277" s="150"/>
+      <c r="A277" s="152"/>
       <c r="B277" s="43">
         <v>187</v>
       </c>
@@ -27761,7 +27761,7 @@
       <c r="M277" s="46"/>
     </row>
     <row r="278" spans="1:13" ht="66" customHeight="1">
-      <c r="A278" s="150"/>
+      <c r="A278" s="152"/>
       <c r="B278" s="43" t="s">
         <v>960</v>
       </c>
@@ -27792,7 +27792,7 @@
       <c r="M278" s="46"/>
     </row>
     <row r="279" spans="1:13" ht="66" customHeight="1">
-      <c r="A279" s="150"/>
+      <c r="A279" s="152"/>
       <c r="B279" s="43">
         <v>188</v>
       </c>
@@ -27823,7 +27823,7 @@
       <c r="M279" s="46"/>
     </row>
     <row r="280" spans="1:13" ht="66" customHeight="1">
-      <c r="A280" s="150"/>
+      <c r="A280" s="152"/>
       <c r="B280" s="43">
         <v>189</v>
       </c>
@@ -27852,7 +27852,7 @@
       <c r="M280" s="46"/>
     </row>
     <row r="281" spans="1:13" ht="66" customHeight="1">
-      <c r="A281" s="150"/>
+      <c r="A281" s="152"/>
       <c r="B281" s="43">
         <v>190</v>
       </c>
@@ -27879,7 +27879,7 @@
       <c r="M281" s="46"/>
     </row>
     <row r="282" spans="1:13" ht="66" customHeight="1">
-      <c r="A282" s="150"/>
+      <c r="A282" s="152"/>
       <c r="B282" s="103" t="s">
         <v>977</v>
       </c>
@@ -27910,7 +27910,7 @@
       <c r="M282" s="46"/>
     </row>
     <row r="283" spans="1:13" ht="66" customHeight="1">
-      <c r="A283" s="150"/>
+      <c r="A283" s="152"/>
       <c r="B283" s="103" t="s">
         <v>982</v>
       </c>
@@ -27941,7 +27941,7 @@
       <c r="M283" s="46"/>
     </row>
     <row r="284" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A284" s="150"/>
+      <c r="A284" s="152"/>
       <c r="B284" s="103" t="s">
         <v>986</v>
       </c>
@@ -27972,7 +27972,7 @@
       <c r="M284" s="86"/>
     </row>
     <row r="285" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A285" s="150"/>
+      <c r="A285" s="152"/>
       <c r="B285" s="103" t="s">
         <v>989</v>
       </c>
@@ -28003,7 +28003,7 @@
       <c r="M285" s="86"/>
     </row>
     <row r="286" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A286" s="150"/>
+      <c r="A286" s="152"/>
       <c r="B286" s="103" t="s">
         <v>992</v>
       </c>
@@ -28034,7 +28034,7 @@
       <c r="M286" s="86"/>
     </row>
     <row r="287" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A287" s="150"/>
+      <c r="A287" s="152"/>
       <c r="B287" s="103" t="s">
         <v>996</v>
       </c>
@@ -28065,7 +28065,7 @@
       <c r="M287" s="86"/>
     </row>
     <row r="288" spans="1:13" s="87" customFormat="1" ht="66" customHeight="1">
-      <c r="A288" s="150"/>
+      <c r="A288" s="152"/>
       <c r="B288" s="103" t="s">
         <v>1000</v>
       </c>
@@ -28096,7 +28096,7 @@
       <c r="M288" s="86"/>
     </row>
     <row r="289" spans="1:13" ht="66" customHeight="1">
-      <c r="A289" s="152" t="s">
+      <c r="A289" s="150" t="s">
         <v>1003</v>
       </c>
       <c r="B289" s="43">
@@ -28131,7 +28131,7 @@
       </c>
     </row>
     <row r="290" spans="1:13" ht="66" customHeight="1">
-      <c r="A290" s="152"/>
+      <c r="A290" s="150"/>
       <c r="B290" s="43">
         <v>192</v>
       </c>
@@ -28162,7 +28162,7 @@
       <c r="M290" s="46"/>
     </row>
     <row r="291" spans="1:13" ht="66" customHeight="1">
-      <c r="A291" s="152"/>
+      <c r="A291" s="150"/>
       <c r="B291" s="43">
         <v>193</v>
       </c>
@@ -28193,7 +28193,7 @@
       <c r="M291" s="46"/>
     </row>
     <row r="292" spans="1:13" ht="66" customHeight="1">
-      <c r="A292" s="152"/>
+      <c r="A292" s="150"/>
       <c r="B292" s="43">
         <v>194</v>
       </c>
@@ -28224,7 +28224,7 @@
       <c r="M292" s="46"/>
     </row>
     <row r="293" spans="1:13" ht="66" customHeight="1">
-      <c r="A293" s="152"/>
+      <c r="A293" s="150"/>
       <c r="B293" s="43">
         <v>195</v>
       </c>
@@ -28255,7 +28255,7 @@
       <c r="M293" s="46"/>
     </row>
     <row r="294" spans="1:13" ht="66" customHeight="1">
-      <c r="A294" s="152"/>
+      <c r="A294" s="150"/>
       <c r="B294" s="43">
         <v>196</v>
       </c>
@@ -28286,7 +28286,7 @@
       <c r="M294" s="46"/>
     </row>
     <row r="295" spans="1:13" ht="66" customHeight="1">
-      <c r="A295" s="152" t="s">
+      <c r="A295" s="150" t="s">
         <v>1021</v>
       </c>
       <c r="B295" s="43">
@@ -28321,7 +28321,7 @@
       </c>
     </row>
     <row r="296" spans="1:13" ht="66" customHeight="1">
-      <c r="A296" s="152"/>
+      <c r="A296" s="150"/>
       <c r="B296" s="43" t="s">
         <v>1026</v>
       </c>
@@ -28354,7 +28354,7 @@
       <c r="M296" s="46"/>
     </row>
     <row r="297" spans="1:13" ht="66" customHeight="1">
-      <c r="A297" s="152"/>
+      <c r="A297" s="150"/>
       <c r="B297" s="43">
         <v>198</v>
       </c>
@@ -28385,7 +28385,7 @@
       <c r="M297" s="46"/>
     </row>
     <row r="298" spans="1:13" ht="66" customHeight="1">
-      <c r="A298" s="152"/>
+      <c r="A298" s="150"/>
       <c r="B298" s="43">
         <v>199</v>
       </c>
@@ -28416,7 +28416,7 @@
       <c r="M298" s="46"/>
     </row>
     <row r="299" spans="1:13" ht="66" customHeight="1">
-      <c r="A299" s="152" t="s">
+      <c r="A299" s="150" t="s">
         <v>1036</v>
       </c>
       <c r="B299" s="43">
@@ -28449,7 +28449,7 @@
       <c r="M299" s="46"/>
     </row>
     <row r="300" spans="1:13" ht="66" customHeight="1">
-      <c r="A300" s="152"/>
+      <c r="A300" s="150"/>
       <c r="B300" s="43">
         <v>201</v>
       </c>
@@ -28480,7 +28480,7 @@
       <c r="M300" s="46"/>
     </row>
     <row r="301" spans="1:13" ht="66" customHeight="1">
-      <c r="A301" s="152"/>
+      <c r="A301" s="150"/>
       <c r="B301" s="43">
         <v>202</v>
       </c>
@@ -28511,7 +28511,7 @@
       <c r="M301" s="46"/>
     </row>
     <row r="302" spans="1:13" ht="66" customHeight="1">
-      <c r="A302" s="152"/>
+      <c r="A302" s="150"/>
       <c r="B302" s="43">
         <v>203</v>
       </c>
@@ -28542,7 +28542,7 @@
       <c r="M302" s="46"/>
     </row>
     <row r="303" spans="1:13" ht="66" customHeight="1">
-      <c r="A303" s="152"/>
+      <c r="A303" s="150"/>
       <c r="B303" s="43">
         <v>204</v>
       </c>
@@ -28573,7 +28573,7 @@
       <c r="M303" s="46"/>
     </row>
     <row r="304" spans="1:13" ht="66" customHeight="1">
-      <c r="A304" s="152"/>
+      <c r="A304" s="150"/>
       <c r="B304" s="43">
         <v>205</v>
       </c>
@@ -28604,7 +28604,7 @@
       <c r="M304" s="46"/>
     </row>
     <row r="305" spans="1:13" ht="66" customHeight="1">
-      <c r="A305" s="152" t="s">
+      <c r="A305" s="150" t="s">
         <v>1053</v>
       </c>
       <c r="B305" s="43">
@@ -28637,7 +28637,7 @@
       <c r="M305" s="46"/>
     </row>
     <row r="306" spans="1:13" ht="66" customHeight="1">
-      <c r="A306" s="152"/>
+      <c r="A306" s="150"/>
       <c r="B306" s="43">
         <v>207</v>
       </c>
@@ -28668,7 +28668,7 @@
       <c r="M306" s="46"/>
     </row>
     <row r="307" spans="1:13" ht="66" customHeight="1">
-      <c r="A307" s="152"/>
+      <c r="A307" s="150"/>
       <c r="B307" s="43" t="s">
         <v>1061</v>
       </c>
@@ -28695,7 +28695,7 @@
       <c r="M307" s="46"/>
     </row>
     <row r="308" spans="1:13" ht="66" customHeight="1">
-      <c r="A308" s="152"/>
+      <c r="A308" s="150"/>
       <c r="B308" s="43">
         <v>208</v>
       </c>
@@ -28726,7 +28726,7 @@
       <c r="M308" s="46"/>
     </row>
     <row r="309" spans="1:13" ht="66" customHeight="1">
-      <c r="A309" s="152"/>
+      <c r="A309" s="150"/>
       <c r="B309" s="43">
         <v>209</v>
       </c>
@@ -28757,7 +28757,7 @@
       <c r="M309" s="46"/>
     </row>
     <row r="310" spans="1:13" ht="66" customHeight="1">
-      <c r="A310" s="152"/>
+      <c r="A310" s="150"/>
       <c r="B310" s="43">
         <v>210</v>
       </c>
@@ -28788,7 +28788,7 @@
       <c r="M310" s="46"/>
     </row>
     <row r="311" spans="1:13" ht="66" customHeight="1">
-      <c r="A311" s="152"/>
+      <c r="A311" s="150"/>
       <c r="B311" s="43">
         <v>211</v>
       </c>
@@ -28819,7 +28819,7 @@
       <c r="M311" s="46"/>
     </row>
     <row r="312" spans="1:13" ht="66" customHeight="1">
-      <c r="A312" s="149" t="s">
+      <c r="A312" s="151" t="s">
         <v>1076</v>
       </c>
       <c r="B312" s="43">
@@ -28852,7 +28852,7 @@
       <c r="M312" s="46"/>
     </row>
     <row r="313" spans="1:13" ht="66" customHeight="1">
-      <c r="A313" s="150"/>
+      <c r="A313" s="152"/>
       <c r="B313" s="43">
         <v>213</v>
       </c>
@@ -28883,7 +28883,7 @@
       <c r="M313" s="46"/>
     </row>
     <row r="314" spans="1:13" ht="66" customHeight="1">
-      <c r="A314" s="150"/>
+      <c r="A314" s="152"/>
       <c r="B314" s="43">
         <v>214</v>
       </c>
@@ -28912,7 +28912,7 @@
       <c r="M314" s="46"/>
     </row>
     <row r="315" spans="1:13" ht="66" customHeight="1">
-      <c r="A315" s="150"/>
+      <c r="A315" s="152"/>
       <c r="B315" s="43">
         <v>215</v>
       </c>
@@ -28943,7 +28943,7 @@
       <c r="M315" s="46"/>
     </row>
     <row r="316" spans="1:13" ht="66" customHeight="1">
-      <c r="A316" s="150"/>
+      <c r="A316" s="152"/>
       <c r="B316" s="43">
         <v>216</v>
       </c>
@@ -28974,7 +28974,7 @@
       <c r="M316" s="46"/>
     </row>
     <row r="317" spans="1:13" ht="66" customHeight="1">
-      <c r="A317" s="150"/>
+      <c r="A317" s="152"/>
       <c r="B317" s="43">
         <v>217</v>
       </c>
@@ -29005,7 +29005,7 @@
       <c r="M317" s="46"/>
     </row>
     <row r="318" spans="1:13" ht="66" customHeight="1">
-      <c r="A318" s="150"/>
+      <c r="A318" s="152"/>
       <c r="B318" s="43">
         <v>218</v>
       </c>
@@ -29036,7 +29036,7 @@
       <c r="M318" s="46"/>
     </row>
     <row r="319" spans="1:13" ht="66" customHeight="1">
-      <c r="A319" s="150"/>
+      <c r="A319" s="152"/>
       <c r="B319" s="43">
         <v>219</v>
       </c>
@@ -29067,7 +29067,7 @@
       <c r="M319" s="46"/>
     </row>
     <row r="320" spans="1:13" ht="66" customHeight="1">
-      <c r="A320" s="150"/>
+      <c r="A320" s="152"/>
       <c r="B320" s="43">
         <v>220</v>
       </c>
@@ -29098,7 +29098,7 @@
       <c r="M320" s="46"/>
     </row>
     <row r="321" spans="1:13" ht="66" customHeight="1">
-      <c r="A321" s="150"/>
+      <c r="A321" s="152"/>
       <c r="B321" s="43">
         <v>221</v>
       </c>
@@ -29129,7 +29129,7 @@
       <c r="M321" s="46"/>
     </row>
     <row r="322" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A322" s="150"/>
+      <c r="A322" s="152"/>
       <c r="B322" s="43" t="s">
         <v>1105</v>
       </c>
@@ -29160,7 +29160,7 @@
       <c r="M322" s="46"/>
     </row>
     <row r="323" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A323" s="150"/>
+      <c r="A323" s="152"/>
       <c r="B323" s="43" t="s">
         <v>1109</v>
       </c>
@@ -29191,7 +29191,7 @@
       <c r="M323" s="46"/>
     </row>
     <row r="324" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A324" s="150"/>
+      <c r="A324" s="152"/>
       <c r="B324" s="43" t="s">
         <v>1113</v>
       </c>
@@ -29222,7 +29222,7 @@
       <c r="M324" s="46"/>
     </row>
     <row r="325" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A325" s="150"/>
+      <c r="A325" s="152"/>
       <c r="B325" s="43" t="s">
         <v>1116</v>
       </c>
@@ -29253,7 +29253,7 @@
       <c r="M325" s="46"/>
     </row>
     <row r="326" spans="1:13" ht="65.25" customHeight="1">
-      <c r="A326" s="151"/>
+      <c r="A326" s="153"/>
       <c r="B326" s="43" t="s">
         <v>1119</v>
       </c>
@@ -29284,7 +29284,7 @@
       <c r="M326" s="46"/>
     </row>
     <row r="327" spans="1:13" ht="66" customHeight="1">
-      <c r="A327" s="152" t="s">
+      <c r="A327" s="150" t="s">
         <v>1123</v>
       </c>
       <c r="B327" s="43">
@@ -29319,7 +29319,7 @@
       </c>
     </row>
     <row r="328" spans="1:13" ht="66" customHeight="1">
-      <c r="A328" s="152"/>
+      <c r="A328" s="150"/>
       <c r="B328" s="43" t="s">
         <v>1128</v>
       </c>
@@ -29346,7 +29346,7 @@
       <c r="M328" s="46"/>
     </row>
     <row r="329" spans="1:13" ht="66" customHeight="1">
-      <c r="A329" s="152"/>
+      <c r="A329" s="150"/>
       <c r="B329" s="43">
         <v>223</v>
       </c>
@@ -29377,7 +29377,7 @@
       <c r="M329" s="46"/>
     </row>
     <row r="330" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A330" s="152"/>
+      <c r="A330" s="150"/>
       <c r="B330" s="43">
         <v>224</v>
       </c>
@@ -29410,7 +29410,7 @@
       <c r="M330" s="48"/>
     </row>
     <row r="331" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A331" s="152"/>
+      <c r="A331" s="150"/>
       <c r="B331" s="43" t="s">
         <v>1137</v>
       </c>
@@ -29440,7 +29440,7 @@
       <c r="M331" s="48"/>
     </row>
     <row r="332" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A332" s="152"/>
+      <c r="A332" s="150"/>
       <c r="B332" s="43" t="s">
         <v>1141</v>
       </c>
@@ -29471,7 +29471,7 @@
       <c r="M332" s="48"/>
     </row>
     <row r="333" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A333" s="152"/>
+      <c r="A333" s="150"/>
       <c r="B333" s="43" t="s">
         <v>1145</v>
       </c>
@@ -29502,7 +29502,7 @@
       <c r="M333" s="48"/>
     </row>
     <row r="334" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A334" s="152"/>
+      <c r="A334" s="150"/>
       <c r="B334" s="43" t="s">
         <v>1149</v>
       </c>
@@ -29535,7 +29535,7 @@
       <c r="M334" s="48"/>
     </row>
     <row r="335" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A335" s="152"/>
+      <c r="A335" s="150"/>
       <c r="B335" s="43" t="s">
         <v>1154</v>
       </c>
@@ -29566,7 +29566,7 @@
       <c r="M335" s="48"/>
     </row>
     <row r="336" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A336" s="152"/>
+      <c r="A336" s="150"/>
       <c r="B336" s="43" t="s">
         <v>1158</v>
       </c>
@@ -29597,7 +29597,7 @@
       <c r="M336" s="48"/>
     </row>
     <row r="337" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A337" s="152"/>
+      <c r="A337" s="150"/>
       <c r="B337" s="43" t="s">
         <v>1162</v>
       </c>
@@ -29628,7 +29628,7 @@
       <c r="M337" s="48"/>
     </row>
     <row r="338" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A338" s="152"/>
+      <c r="A338" s="150"/>
       <c r="B338" s="43" t="s">
         <v>1165</v>
       </c>
@@ -29659,7 +29659,7 @@
       <c r="M338" s="48"/>
     </row>
     <row r="339" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A339" s="152"/>
+      <c r="A339" s="150"/>
       <c r="B339" s="43" t="s">
         <v>1169</v>
       </c>
@@ -29692,7 +29692,7 @@
       <c r="M339" s="48"/>
     </row>
     <row r="340" spans="1:13" ht="66" customHeight="1">
-      <c r="A340" s="152"/>
+      <c r="A340" s="150"/>
       <c r="B340" s="43">
         <v>225</v>
       </c>
@@ -29723,7 +29723,7 @@
       <c r="M340" s="46"/>
     </row>
     <row r="341" spans="1:13" ht="66" customHeight="1">
-      <c r="A341" s="152" t="s">
+      <c r="A341" s="150" t="s">
         <v>1177</v>
       </c>
       <c r="B341" s="43">
@@ -29756,7 +29756,7 @@
       <c r="M341" s="46"/>
     </row>
     <row r="342" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A342" s="152"/>
+      <c r="A342" s="150"/>
       <c r="B342" s="43">
         <v>227</v>
       </c>
@@ -29789,7 +29789,7 @@
       <c r="M342" s="48"/>
     </row>
     <row r="343" spans="1:13" ht="66" customHeight="1">
-      <c r="A343" s="152"/>
+      <c r="A343" s="150"/>
       <c r="B343" s="43">
         <v>228</v>
       </c>
@@ -29820,7 +29820,7 @@
       <c r="M343" s="46"/>
     </row>
     <row r="344" spans="1:13" ht="66" customHeight="1">
-      <c r="A344" s="152" t="s">
+      <c r="A344" s="150" t="s">
         <v>1188</v>
       </c>
       <c r="B344" s="43">
@@ -29855,7 +29855,7 @@
       <c r="M344" s="46"/>
     </row>
     <row r="345" spans="1:13" s="60" customFormat="1" ht="66" customHeight="1">
-      <c r="A345" s="152"/>
+      <c r="A345" s="150"/>
       <c r="B345" s="43">
         <v>230</v>
       </c>
@@ -29886,7 +29886,7 @@
       <c r="M345" s="48"/>
     </row>
     <row r="346" spans="1:13" ht="66" customHeight="1">
-      <c r="A346" s="152"/>
+      <c r="A346" s="150"/>
       <c r="B346" s="43">
         <v>231</v>
       </c>
@@ -29917,7 +29917,7 @@
       <c r="M346" s="46"/>
     </row>
     <row r="347" spans="1:13" ht="66" customHeight="1">
-      <c r="A347" s="152" t="s">
+      <c r="A347" s="150" t="s">
         <v>1200</v>
       </c>
       <c r="B347" s="43">
@@ -29950,7 +29950,7 @@
       <c r="M347" s="46"/>
     </row>
     <row r="348" spans="1:13" ht="66" customHeight="1">
-      <c r="A348" s="152"/>
+      <c r="A348" s="150"/>
       <c r="B348" s="43">
         <v>233</v>
       </c>
@@ -29981,7 +29981,7 @@
       <c r="M348" s="46"/>
     </row>
     <row r="349" spans="1:13" ht="60" customHeight="1">
-      <c r="A349" s="152"/>
+      <c r="A349" s="150"/>
       <c r="B349" s="43">
         <v>234</v>
       </c>
@@ -30012,7 +30012,7 @@
       <c r="M349" s="46"/>
     </row>
     <row r="350" spans="1:13" ht="60" customHeight="1">
-      <c r="A350" s="152"/>
+      <c r="A350" s="150"/>
       <c r="B350" s="43">
         <v>235</v>
       </c>
@@ -30043,7 +30043,7 @@
       <c r="M350" s="46"/>
     </row>
     <row r="351" spans="1:13" ht="60" customHeight="1">
-      <c r="A351" s="152"/>
+      <c r="A351" s="150"/>
       <c r="B351" s="43">
         <v>236</v>
       </c>
@@ -30074,7 +30074,7 @@
       <c r="M351" s="46"/>
     </row>
     <row r="352" spans="1:13" ht="60" customHeight="1">
-      <c r="A352" s="152"/>
+      <c r="A352" s="150"/>
       <c r="B352" s="43">
         <v>237</v>
       </c>
@@ -30105,7 +30105,7 @@
       <c r="M352" s="46"/>
     </row>
     <row r="353" spans="1:13" ht="60" customHeight="1">
-      <c r="A353" s="152"/>
+      <c r="A353" s="150"/>
       <c r="B353" s="43" t="s">
         <v>1220</v>
       </c>
@@ -30138,7 +30138,7 @@
       <c r="M353" s="46"/>
     </row>
     <row r="354" spans="1:13" ht="60" customHeight="1">
-      <c r="A354" s="152"/>
+      <c r="A354" s="150"/>
       <c r="B354" s="43" t="s">
         <v>1224</v>
       </c>
@@ -30171,7 +30171,7 @@
       <c r="M354" s="46"/>
     </row>
     <row r="355" spans="1:13" ht="60" customHeight="1">
-      <c r="A355" s="152"/>
+      <c r="A355" s="150"/>
       <c r="B355" s="43">
         <v>238</v>
       </c>
@@ -30202,7 +30202,7 @@
       <c r="M355" s="46"/>
     </row>
     <row r="356" spans="1:13" ht="60" customHeight="1">
-      <c r="A356" s="152"/>
+      <c r="A356" s="150"/>
       <c r="B356" s="43">
         <v>239</v>
       </c>
@@ -30233,7 +30233,7 @@
       <c r="M356" s="46"/>
     </row>
     <row r="357" spans="1:13" ht="60" customHeight="1">
-      <c r="A357" s="152"/>
+      <c r="A357" s="150"/>
       <c r="B357" s="43">
         <v>240</v>
       </c>
@@ -30262,7 +30262,7 @@
       <c r="M357" s="46"/>
     </row>
     <row r="358" spans="1:13" ht="60" customHeight="1">
-      <c r="A358" s="152"/>
+      <c r="A358" s="150"/>
       <c r="B358" s="43">
         <v>241</v>
       </c>
@@ -30291,7 +30291,7 @@
       <c r="M358" s="46"/>
     </row>
     <row r="359" spans="1:13" ht="60" customHeight="1">
-      <c r="A359" s="152"/>
+      <c r="A359" s="150"/>
       <c r="B359" s="43">
         <v>242</v>
       </c>
@@ -30320,7 +30320,7 @@
       <c r="M359" s="46"/>
     </row>
     <row r="360" spans="1:13" ht="60" customHeight="1">
-      <c r="A360" s="152"/>
+      <c r="A360" s="150"/>
       <c r="B360" s="43">
         <v>243</v>
       </c>
@@ -30349,7 +30349,7 @@
       <c r="M360" s="46"/>
     </row>
     <row r="361" spans="1:13" ht="60" customHeight="1">
-      <c r="A361" s="152"/>
+      <c r="A361" s="150"/>
       <c r="B361" s="43" t="s">
         <v>1240</v>
       </c>
@@ -30378,7 +30378,7 @@
       <c r="M361" s="46"/>
     </row>
     <row r="362" spans="1:13" ht="60" customHeight="1">
-      <c r="A362" s="152"/>
+      <c r="A362" s="150"/>
       <c r="B362" s="43" t="s">
         <v>1245</v>
       </c>
@@ -30407,7 +30407,7 @@
       <c r="M362" s="46"/>
     </row>
     <row r="363" spans="1:13" ht="60" customHeight="1">
-      <c r="A363" s="152"/>
+      <c r="A363" s="150"/>
       <c r="B363" s="43" t="s">
         <v>1250</v>
       </c>
@@ -30436,7 +30436,7 @@
       <c r="M363" s="46"/>
     </row>
     <row r="364" spans="1:13" ht="60" customHeight="1">
-      <c r="A364" s="152" t="s">
+      <c r="A364" s="150" t="s">
         <v>1254</v>
       </c>
       <c r="B364" s="43">
@@ -30469,7 +30469,7 @@
       <c r="M364" s="46"/>
     </row>
     <row r="365" spans="1:13" ht="60" customHeight="1">
-      <c r="A365" s="152"/>
+      <c r="A365" s="150"/>
       <c r="B365" s="43" t="s">
         <v>1258</v>
       </c>
@@ -30500,7 +30500,7 @@
       <c r="M365" s="46"/>
     </row>
     <row r="366" spans="1:13" ht="60" customHeight="1">
-      <c r="A366" s="152"/>
+      <c r="A366" s="150"/>
       <c r="B366" s="43" t="s">
         <v>1261</v>
       </c>
@@ -30531,7 +30531,7 @@
       <c r="M366" s="46"/>
     </row>
     <row r="367" spans="1:13" ht="60" customHeight="1">
-      <c r="A367" s="152"/>
+      <c r="A367" s="150"/>
       <c r="B367" s="43">
         <v>245</v>
       </c>
@@ -30562,7 +30562,7 @@
       <c r="M367" s="46"/>
     </row>
     <row r="368" spans="1:13" ht="60" customHeight="1">
-      <c r="A368" s="152"/>
+      <c r="A368" s="150"/>
       <c r="B368" s="43" t="s">
         <v>1266</v>
       </c>
@@ -30595,7 +30595,7 @@
       <c r="M368" s="46"/>
     </row>
     <row r="369" spans="1:13" ht="60" customHeight="1">
-      <c r="A369" s="152"/>
+      <c r="A369" s="150"/>
       <c r="B369" s="43" t="s">
         <v>1271</v>
       </c>
@@ -30628,7 +30628,7 @@
       <c r="M369" s="46"/>
     </row>
     <row r="370" spans="1:13" ht="60" customHeight="1">
-      <c r="A370" s="152"/>
+      <c r="A370" s="150"/>
       <c r="B370" s="43" t="s">
         <v>1275</v>
       </c>
@@ -30661,7 +30661,7 @@
       <c r="M370" s="46"/>
     </row>
     <row r="371" spans="1:13" s="60" customFormat="1" ht="60" customHeight="1">
-      <c r="A371" s="152"/>
+      <c r="A371" s="150"/>
       <c r="B371" s="43" t="s">
         <v>1279</v>
       </c>
@@ -30694,7 +30694,7 @@
       <c r="M371" s="48"/>
     </row>
     <row r="372" spans="1:13" ht="60" customHeight="1">
-      <c r="A372" s="152" t="s">
+      <c r="A372" s="150" t="s">
         <v>1283</v>
       </c>
       <c r="B372" s="43">
@@ -30729,7 +30729,7 @@
       <c r="M372" s="46"/>
     </row>
     <row r="373" spans="1:13" ht="60" customHeight="1">
-      <c r="A373" s="152"/>
+      <c r="A373" s="150"/>
       <c r="B373" s="43">
         <v>248</v>
       </c>
@@ -30760,7 +30760,7 @@
       <c r="M373" s="46"/>
     </row>
     <row r="374" spans="1:13" ht="60" customHeight="1">
-      <c r="A374" s="152"/>
+      <c r="A374" s="150"/>
       <c r="B374" s="43">
         <v>249</v>
       </c>
@@ -30823,7 +30823,7 @@
     </row>
     <row r="376" spans="1:13" ht="22.5" customHeight="1"/>
     <row r="377" spans="1:13" ht="39" customHeight="1">
-      <c r="A377" s="160" t="s">
+      <c r="A377" s="149" t="s">
         <v>1298</v>
       </c>
       <c r="C377" s="59" t="s">
@@ -30837,7 +30837,7 @@
       </c>
     </row>
     <row r="378" spans="1:13" ht="39" customHeight="1">
-      <c r="A378" s="160"/>
+      <c r="A378" s="149"/>
       <c r="C378" s="59" t="s">
         <v>1302</v>
       </c>
@@ -30849,7 +30849,7 @@
       </c>
     </row>
     <row r="379" spans="1:13" ht="39" customHeight="1">
-      <c r="A379" s="160"/>
+      <c r="A379" s="149"/>
       <c r="C379" s="59" t="s">
         <v>1304</v>
       </c>
@@ -30861,7 +30861,7 @@
       </c>
     </row>
     <row r="380" spans="1:13" ht="39" customHeight="1">
-      <c r="A380" s="160"/>
+      <c r="A380" s="149"/>
       <c r="C380" s="59" t="s">
         <v>1306</v>
       </c>
@@ -30870,7 +30870,7 @@
       </c>
     </row>
     <row r="381" spans="1:13" ht="39" customHeight="1">
-      <c r="A381" s="160"/>
+      <c r="A381" s="149"/>
       <c r="C381" s="59" t="s">
         <v>1307</v>
       </c>
@@ -30882,7 +30882,7 @@
       </c>
     </row>
     <row r="382" spans="1:13" ht="39" customHeight="1">
-      <c r="A382" s="160"/>
+      <c r="A382" s="149"/>
       <c r="C382" s="59" t="s">
         <v>1309</v>
       </c>
@@ -30894,7 +30894,7 @@
       </c>
     </row>
     <row r="383" spans="1:13" ht="39" customHeight="1">
-      <c r="A383" s="160"/>
+      <c r="A383" s="149"/>
       <c r="C383" s="59" t="s">
         <v>1311</v>
       </c>
@@ -30906,7 +30906,7 @@
       </c>
     </row>
     <row r="384" spans="1:13" ht="39" customHeight="1">
-      <c r="A384" s="160"/>
+      <c r="A384" s="149"/>
       <c r="C384" s="59" t="s">
         <v>1313</v>
       </c>
@@ -30915,7 +30915,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" ht="39" customHeight="1">
-      <c r="A385" s="160"/>
+      <c r="A385" s="149"/>
       <c r="C385" s="59" t="s">
         <v>1314</v>
       </c>
@@ -30927,7 +30927,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" ht="39" customHeight="1">
-      <c r="A386" s="160"/>
+      <c r="A386" s="149"/>
       <c r="C386" s="59" t="s">
         <v>1315</v>
       </c>
@@ -30939,7 +30939,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" ht="39" customHeight="1">
-      <c r="A387" s="160"/>
+      <c r="A387" s="149"/>
       <c r="C387" s="59" t="s">
         <v>1317</v>
       </c>
@@ -30951,7 +30951,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" ht="39" customHeight="1">
-      <c r="A388" s="160"/>
+      <c r="A388" s="149"/>
       <c r="C388" s="59" t="s">
         <v>1319</v>
       </c>
@@ -30961,7 +30961,7 @@
       <c r="F388" s="59"/>
     </row>
     <row r="389" spans="1:6" ht="39" customHeight="1">
-      <c r="A389" s="160"/>
+      <c r="A389" s="149"/>
       <c r="C389" s="112" t="s">
         <v>1320</v>
       </c>
@@ -30973,7 +30973,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" ht="39" customHeight="1">
-      <c r="A390" s="160"/>
+      <c r="A390" s="149"/>
       <c r="C390" s="112" t="s">
         <v>1321</v>
       </c>
@@ -30985,7 +30985,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" ht="39" customHeight="1">
-      <c r="A391" s="160"/>
+      <c r="A391" s="149"/>
       <c r="C391" s="112" t="s">
         <v>1322</v>
       </c>
@@ -30997,7 +30997,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" ht="39" customHeight="1">
-      <c r="A392" s="160"/>
+      <c r="A392" s="149"/>
       <c r="C392" s="112" t="s">
         <v>1323</v>
       </c>
@@ -31006,7 +31006,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" ht="38.25" hidden="1">
-      <c r="A393" s="160"/>
+      <c r="A393" s="149"/>
       <c r="C393" s="59" t="s">
         <v>1324</v>
       </c>
@@ -31015,7 +31015,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" ht="38.25" hidden="1">
-      <c r="A394" s="160"/>
+      <c r="A394" s="149"/>
       <c r="C394" s="59" t="s">
         <v>1326</v>
       </c>
@@ -31024,7 +31024,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" ht="38.25" hidden="1">
-      <c r="A395" s="160"/>
+      <c r="A395" s="149"/>
       <c r="C395" s="59" t="s">
         <v>1328</v>
       </c>
@@ -31034,6 +31034,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A312:A326"/>
+    <mergeCell ref="A214:A225"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A44:A68"/>
+    <mergeCell ref="A16:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A72:A91"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="A170:A188"/>
+    <mergeCell ref="A198:A204"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="A130:A143"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A364:A371"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="A327:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="A347:A363"/>
     <mergeCell ref="A377:A395"/>
     <mergeCell ref="A305:A311"/>
     <mergeCell ref="A226:A288"/>
@@ -31050,28 +31072,6 @@
     <mergeCell ref="A299:A304"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A364:A371"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="A327:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="A347:A363"/>
-    <mergeCell ref="A312:A326"/>
-    <mergeCell ref="A214:A225"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A44:A68"/>
-    <mergeCell ref="A16:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A72:A91"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="A170:A188"/>
-    <mergeCell ref="A198:A204"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="A130:A143"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="A144:A149"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:L1 H375 H275:I276 I274 I19:I21 H266:I273 H370:I374 H363:I368 H327:I359 H324:H326 H322 I322:I326 H235:I246 H308:I321 H289:I306 H2:I19 H233:H234 H249:I264 H277:H288 H136:I143 I144:I148 H123:I131 H133:H135 I132:I135 H22:I80 H145:I213 H82:I120 H215:I232">
@@ -31564,7 +31564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A2C8C0-BCCE-41AB-9AF2-B9BD0D7BB2B1}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{FCAF7BD2-8657-5FC7-9476-C0246F6ED608}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -31614,7 +31614,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="149" t="s">
         <v>1298</v>
       </c>
       <c r="B2" s="161" t="s">
@@ -31637,8 +31637,8 @@
       <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1">
-      <c r="A3" s="160"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="58"/>
       <c r="D3" s="59" t="s">
         <v>1337</v>
@@ -31654,8 +31654,8 @@
       <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:10" ht="63.75">
-      <c r="A4" s="160"/>
-      <c r="B4" s="160"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
         <v>1339</v>
@@ -31669,8 +31669,8 @@
       <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1">
-      <c r="A5" s="160"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="58">
         <v>2</v>
       </c>
@@ -31688,8 +31688,8 @@
       <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:10" ht="76.5">
-      <c r="A6" s="160"/>
-      <c r="B6" s="160"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59" t="s">
         <v>1343</v>
@@ -31703,8 +31703,8 @@
       <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:10" ht="39" customHeight="1">
-      <c r="A7" s="160"/>
-      <c r="B7" s="160"/>
+      <c r="A7" s="149"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="58">
         <v>4</v>
       </c>
@@ -31720,8 +31720,8 @@
       <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:10" ht="39" customHeight="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="160"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="58">
         <v>5</v>
       </c>
@@ -31739,8 +31739,8 @@
       <c r="I8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="39" customHeight="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="58">
         <v>6</v>
       </c>
@@ -31758,8 +31758,8 @@
       <c r="I9" s="119"/>
     </row>
     <row r="10" spans="1:10" ht="39" customHeight="1">
-      <c r="A10" s="160"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="58">
         <v>7</v>
       </c>
@@ -31779,8 +31779,8 @@
       <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:10" ht="39" customHeight="1">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="58">
         <v>8</v>
       </c>
@@ -31796,8 +31796,8 @@
       <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:10" ht="39" customHeight="1">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="149" t="s">
         <v>1354</v>
       </c>
       <c r="C12" s="58">
@@ -31817,8 +31817,8 @@
       <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:10" ht="39" customHeight="1">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="58">
         <v>10</v>
       </c>
@@ -31836,8 +31836,8 @@
       <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:10" ht="39" customHeight="1">
-      <c r="A14" s="160"/>
-      <c r="B14" s="160"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="58">
         <v>11</v>
       </c>
@@ -31855,8 +31855,8 @@
       <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:10" ht="39" customHeight="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="160"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="58">
         <v>12</v>
       </c>
@@ -31872,8 +31872,8 @@
       <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="39" customHeight="1">
-      <c r="A16" s="160"/>
-      <c r="B16" s="160"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
       <c r="C16" s="58">
         <v>13</v>
       </c>
@@ -31891,8 +31891,8 @@
       <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1">
-      <c r="A17" s="160"/>
-      <c r="B17" s="160"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="58">
         <v>14</v>
       </c>
@@ -31910,8 +31910,8 @@
       <c r="I17" s="119"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1">
-      <c r="A18" s="160"/>
-      <c r="B18" s="160"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="58">
         <v>15</v>
       </c>
@@ -31931,8 +31931,8 @@
       <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1">
-      <c r="A19" s="160"/>
-      <c r="B19" s="160"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="58">
         <v>16</v>
       </c>
@@ -32079,7 +32079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -32798,7 +32798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -33157,7 +33157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DFF5D-CBFD-4F1C-9FAD-708F02B05D7B}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" xr3:uid="{802BF04C-21D0-5D74-A266-69EF0A44E9B7}">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -33993,7 +33993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A45DE-7783-4776-B702-14701DFB8D78}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{6DB9AEE3-0324-571C-96BD-5D3C91A7CAEC}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -34086,7 +34086,7 @@
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="173"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="14">
         <v>2</v>
       </c>
@@ -34117,7 +34117,7 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="173"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="14">
         <v>3</v>
       </c>
@@ -34148,7 +34148,7 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A5" s="173"/>
+      <c r="A5" s="174"/>
       <c r="B5" s="14">
         <v>4</v>
       </c>
@@ -34179,7 +34179,7 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A6" s="173"/>
+      <c r="A6" s="174"/>
       <c r="B6" s="14">
         <v>5</v>
       </c>
@@ -34210,7 +34210,7 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="173"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="14">
         <v>6</v>
       </c>
@@ -34241,7 +34241,7 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A8" s="174"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="14"/>
       <c r="C8" s="12" t="s">
         <v>1453</v>
@@ -34813,7 +34813,7 @@
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A28" s="173"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="14">
         <v>19</v>
       </c>
@@ -34844,7 +34844,7 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A29" s="173"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="14">
         <v>20</v>
       </c>
@@ -34875,7 +34875,7 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A30" s="173"/>
+      <c r="A30" s="174"/>
       <c r="B30" s="14">
         <v>21</v>
       </c>
@@ -34906,7 +34906,7 @@
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A31" s="173"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="14">
         <v>22</v>
       </c>
@@ -34937,7 +34937,7 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A32" s="174"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="14">
         <v>23</v>
       </c>
@@ -35191,7 +35191,7 @@
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A40" s="174"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="14">
         <v>31</v>
       </c>
@@ -35255,7 +35255,7 @@
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A42" s="173"/>
+      <c r="A42" s="174"/>
       <c r="B42" s="14">
         <v>33</v>
       </c>
@@ -35286,7 +35286,7 @@
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A43" s="173"/>
+      <c r="A43" s="174"/>
       <c r="B43" s="14">
         <v>34</v>
       </c>
@@ -35317,7 +35317,7 @@
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A44" s="173"/>
+      <c r="A44" s="174"/>
       <c r="B44" s="14">
         <v>35</v>
       </c>
@@ -35348,7 +35348,7 @@
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A45" s="174"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="14">
         <v>36</v>
       </c>
@@ -35412,7 +35412,7 @@
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A47" s="173"/>
+      <c r="A47" s="174"/>
       <c r="B47" s="14">
         <v>38</v>
       </c>
@@ -35443,7 +35443,7 @@
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" s="11" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A48" s="174"/>
+      <c r="A48" s="173"/>
       <c r="B48" s="14">
         <v>39</v>
       </c>
@@ -35509,7 +35509,7 @@
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" s="11" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A50" s="174"/>
+      <c r="A50" s="173"/>
       <c r="B50" s="14">
         <v>41</v>
       </c>
@@ -35573,7 +35573,7 @@
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" s="11" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A52" s="174"/>
+      <c r="A52" s="173"/>
       <c r="B52" s="14">
         <v>43</v>
       </c>
@@ -35747,12 +35747,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A38"/>
@@ -35760,6 +35754,12 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:H1 H20:I26 J1:L1 H2:H19 H27:H56">
@@ -35908,6 +35908,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010092AA879EA5FF9143AC71F24451CE84E9" ma:contentTypeVersion="9" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="8c107e527b7d910529810ceeae5cf1f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b97d2f5-af78-472f-8516-3c70567a0e7b" xmlns:ns3="1ddc62a5-0931-4b44-a448-4e9e94c90af0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="040e64265c195a211f06d56c251cd05f" ns2:_="" ns3:_="">
     <xsd:import namespace="3b97d2f5-af78-472f-8516-3c70567a0e7b"/>
@@ -36104,29 +36119,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D35190D-CB40-43C6-B12B-E2B7DE1A43D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945C261B-0528-419D-9CA3-C6CBEDB76222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A094674-2E76-411A-B0E4-FA4CED26C3E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A094674-2E76-411A-B0E4-FA4CED26C3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945C261B-0528-419D-9CA3-C6CBEDB76222}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D35190D-CB40-43C6-B12B-E2B7DE1A43D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b97d2f5-af78-472f-8516-3c70567a0e7b"/>
+    <ds:schemaRef ds:uri="1ddc62a5-0931-4b44-a448-4e9e94c90af0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>